--- a/backend/fms_core/tests/invalid_templates/Sample_submission_v3_13_0_dna_no_conc.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Sample_submission_v3_13_0_dna_no_conc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/Templates/Sample Submission Mock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/invalid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3182857-A3D2-DD44-8D8E-BAA172F3E87C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E7092-E035-6E48-8A07-E191D3E90BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_10x_Genomics_Dual_Index_NT_Series">Index!$X$2:$X$97</definedName>
@@ -434,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="2916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="2917">
   <si>
     <t>SAMPLE SUBMISSION</t>
   </si>
@@ -9231,6 +9232,9 @@
   </si>
   <si>
     <t>This is a comment</t>
+  </si>
+  <si>
+    <t>Library Size (bp)</t>
   </si>
 </sst>
 </file>
@@ -9592,21 +9596,21 @@
     <xf numFmtId="49" fontId="7" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -9729,12 +9733,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -9881,6 +9879,19 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Index"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -10200,10 +10211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF500"/>
+  <dimension ref="A1:AG500"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15"/>
@@ -10230,15 +10241,15 @@
     <col min="23" max="23" width="30.5" customWidth="1"/>
     <col min="24" max="24" width="19.5" customWidth="1"/>
     <col min="25" max="25" width="24.5" customWidth="1"/>
-    <col min="26" max="26" width="24" customWidth="1"/>
-    <col min="27" max="27" width="41.1640625" customWidth="1"/>
-    <col min="28" max="29" width="36.83203125" customWidth="1"/>
-    <col min="30" max="30" width="27.6640625" customWidth="1"/>
-    <col min="31" max="31" width="16" customWidth="1"/>
-    <col min="32" max="33" width="10.6640625" customWidth="1"/>
+    <col min="26" max="27" width="24" customWidth="1"/>
+    <col min="28" max="28" width="41.1640625" customWidth="1"/>
+    <col min="29" max="30" width="36.83203125" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="34" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="41.25" customHeight="1">
+    <row r="1" spans="1:32" ht="41.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -10247,8 +10258,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="13" customHeight="1"/>
-    <row r="3" spans="1:31" ht="21" customHeight="1">
+    <row r="2" spans="1:32" ht="13" customHeight="1"/>
+    <row r="3" spans="1:32" ht="21" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10256,12 +10267,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="5" customFormat="1">
+    <row r="6" spans="1:32" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -10277,21 +10288,21 @@
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="35"/>
       <c r="T6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AE6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="33" customHeight="1">
+    <row r="7" spans="1:32" ht="33" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -10371,75 +10382,79 @@
         <v>31</v>
       </c>
       <c r="AA7" s="11" t="s">
+        <v>2916</v>
+      </c>
+      <c r="AB7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AC7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AD7" s="11" t="s">
         <v>2907</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AE7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:32">
+      <c r="A8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>2910</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>2911</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>2912</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="32" t="s">
         <v>2913</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35">
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34">
         <v>10</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="33" t="s">
+      <c r="U8" s="34"/>
+      <c r="V8" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="32" t="s">
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="31" t="s">
         <v>2914</v>
       </c>
-      <c r="AE8" s="33" t="s">
+      <c r="AF8" s="32" t="s">
         <v>2915</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -10469,10 +10484,11 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="13"/>
+      <c r="AD9" s="14"/>
       <c r="AE9" s="13"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -10502,10 +10518,11 @@
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
-      <c r="AD10" s="13"/>
+      <c r="AD10" s="14"/>
       <c r="AE10" s="13"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -10535,10 +10552,11 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="13"/>
+      <c r="AD11" s="14"/>
       <c r="AE11" s="13"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -10568,10 +10586,11 @@
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="13"/>
+      <c r="AD12" s="14"/>
       <c r="AE12" s="13"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -10601,10 +10620,11 @@
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
-      <c r="AD13" s="13"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="13"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10634,10 +10654,11 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
-      <c r="AD14" s="13"/>
+      <c r="AD14" s="14"/>
       <c r="AE14" s="13"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -10667,10 +10688,11 @@
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
-      <c r="AD15" s="13"/>
+      <c r="AD15" s="14"/>
       <c r="AE15" s="13"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -10700,10 +10722,11 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="13"/>
+      <c r="AD16" s="14"/>
       <c r="AE16" s="13"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10733,10 +10756,11 @@
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="13"/>
+      <c r="AD17" s="14"/>
       <c r="AE17" s="13"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10766,10 +10790,11 @@
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="13"/>
+      <c r="AD18" s="14"/>
       <c r="AE18" s="13"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -10799,10 +10824,11 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
-      <c r="AD19" s="13"/>
+      <c r="AD19" s="14"/>
       <c r="AE19" s="13"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -10832,10 +10858,11 @@
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
-      <c r="AD20" s="13"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" s="13"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -10865,10 +10892,11 @@
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
-      <c r="AD21" s="13"/>
+      <c r="AD21" s="14"/>
       <c r="AE21" s="13"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AF21" s="13"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -10898,10 +10926,11 @@
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
-      <c r="AD22" s="13"/>
+      <c r="AD22" s="14"/>
       <c r="AE22" s="13"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF22" s="13"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -10931,10 +10960,11 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="13"/>
+      <c r="AD23" s="14"/>
       <c r="AE23" s="13"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AF23" s="13"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -10964,10 +10994,11 @@
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="13"/>
+      <c r="AD24" s="14"/>
       <c r="AE24" s="13"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -10997,10 +11028,11 @@
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
-      <c r="AD25" s="13"/>
+      <c r="AD25" s="14"/>
       <c r="AE25" s="13"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AF25" s="13"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -11030,10 +11062,11 @@
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
-      <c r="AD26" s="13"/>
+      <c r="AD26" s="14"/>
       <c r="AE26" s="13"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26" s="13"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -11063,10 +11096,11 @@
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
-      <c r="AD27" s="13"/>
+      <c r="AD27" s="14"/>
       <c r="AE27" s="13"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27" s="13"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -11096,10 +11130,11 @@
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="13"/>
+      <c r="AD28" s="14"/>
       <c r="AE28" s="13"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28" s="13"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -11129,10 +11164,11 @@
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
-      <c r="AD29" s="13"/>
+      <c r="AD29" s="14"/>
       <c r="AE29" s="13"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -11162,10 +11198,11 @@
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
-      <c r="AD30" s="13"/>
+      <c r="AD30" s="14"/>
       <c r="AE30" s="13"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -11195,10 +11232,11 @@
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="13"/>
+      <c r="AD31" s="14"/>
       <c r="AE31" s="13"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AF31" s="13"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -11228,10 +11266,11 @@
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="13"/>
+      <c r="AD32" s="14"/>
       <c r="AE32" s="13"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -11261,10 +11300,11 @@
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
-      <c r="AD33" s="13"/>
+      <c r="AD33" s="14"/>
       <c r="AE33" s="13"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AF33" s="13"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -11294,10 +11334,11 @@
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="13"/>
+      <c r="AD34" s="14"/>
       <c r="AE34" s="13"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AF34" s="13"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -11327,10 +11368,11 @@
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="13"/>
+      <c r="AD35" s="14"/>
       <c r="AE35" s="13"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AF35" s="13"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -11360,10 +11402,11 @@
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
-      <c r="AD36" s="13"/>
+      <c r="AD36" s="14"/>
       <c r="AE36" s="13"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AF36" s="13"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -11393,10 +11436,11 @@
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="13"/>
+      <c r="AD37" s="14"/>
       <c r="AE37" s="13"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AF37" s="13"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -11426,10 +11470,11 @@
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
       <c r="AC38" s="14"/>
-      <c r="AD38" s="13"/>
+      <c r="AD38" s="14"/>
       <c r="AE38" s="13"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AF38" s="13"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -11459,10 +11504,11 @@
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14"/>
-      <c r="AD39" s="13"/>
+      <c r="AD39" s="14"/>
       <c r="AE39" s="13"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AF39" s="13"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -11492,10 +11538,11 @@
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
-      <c r="AD40" s="13"/>
+      <c r="AD40" s="14"/>
       <c r="AE40" s="13"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AF40" s="13"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -11525,10 +11572,11 @@
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="14"/>
-      <c r="AD41" s="13"/>
+      <c r="AD41" s="14"/>
       <c r="AE41" s="13"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AF41" s="13"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -11558,10 +11606,11 @@
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
       <c r="AC42" s="14"/>
-      <c r="AD42" s="13"/>
+      <c r="AD42" s="14"/>
       <c r="AE42" s="13"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AF42" s="13"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -11591,10 +11640,11 @@
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
-      <c r="AD43" s="13"/>
+      <c r="AD43" s="14"/>
       <c r="AE43" s="13"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AF43" s="13"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -11624,10 +11674,11 @@
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="13"/>
+      <c r="AD44" s="14"/>
       <c r="AE44" s="13"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AF44" s="13"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -11657,10 +11708,11 @@
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
       <c r="AC45" s="14"/>
-      <c r="AD45" s="13"/>
+      <c r="AD45" s="14"/>
       <c r="AE45" s="13"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AF45" s="13"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -11690,10 +11742,11 @@
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
       <c r="AC46" s="14"/>
-      <c r="AD46" s="13"/>
+      <c r="AD46" s="14"/>
       <c r="AE46" s="13"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AF46" s="13"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -11723,10 +11776,11 @@
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
       <c r="AC47" s="14"/>
-      <c r="AD47" s="13"/>
+      <c r="AD47" s="14"/>
       <c r="AE47" s="13"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AF47" s="13"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -11756,10 +11810,11 @@
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
       <c r="AC48" s="14"/>
-      <c r="AD48" s="13"/>
+      <c r="AD48" s="14"/>
       <c r="AE48" s="13"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AF48" s="13"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -11789,10 +11844,11 @@
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
       <c r="AC49" s="14"/>
-      <c r="AD49" s="13"/>
+      <c r="AD49" s="14"/>
       <c r="AE49" s="13"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AF49" s="13"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -11822,10 +11878,11 @@
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
       <c r="AC50" s="14"/>
-      <c r="AD50" s="13"/>
+      <c r="AD50" s="14"/>
       <c r="AE50" s="13"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AF50" s="13"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -11855,10 +11912,11 @@
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="13"/>
+      <c r="AD51" s="14"/>
       <c r="AE51" s="13"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AF51" s="13"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -11888,10 +11946,11 @@
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="14"/>
-      <c r="AD52" s="13"/>
+      <c r="AD52" s="14"/>
       <c r="AE52" s="13"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AF52" s="13"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -11921,10 +11980,11 @@
       <c r="AA53" s="14"/>
       <c r="AB53" s="14"/>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="13"/>
+      <c r="AD53" s="14"/>
       <c r="AE53" s="13"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="AF53" s="13"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -11954,10 +12014,11 @@
       <c r="AA54" s="14"/>
       <c r="AB54" s="14"/>
       <c r="AC54" s="14"/>
-      <c r="AD54" s="13"/>
+      <c r="AD54" s="14"/>
       <c r="AE54" s="13"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AF54" s="13"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -11987,10 +12048,11 @@
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14"/>
-      <c r="AD55" s="13"/>
+      <c r="AD55" s="14"/>
       <c r="AE55" s="13"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AF55" s="13"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -12020,10 +12082,11 @@
       <c r="AA56" s="14"/>
       <c r="AB56" s="14"/>
       <c r="AC56" s="14"/>
-      <c r="AD56" s="13"/>
+      <c r="AD56" s="14"/>
       <c r="AE56" s="13"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AF56" s="13"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -12053,10 +12116,11 @@
       <c r="AA57" s="14"/>
       <c r="AB57" s="14"/>
       <c r="AC57" s="14"/>
-      <c r="AD57" s="13"/>
+      <c r="AD57" s="14"/>
       <c r="AE57" s="13"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AF57" s="13"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -12086,10 +12150,11 @@
       <c r="AA58" s="14"/>
       <c r="AB58" s="14"/>
       <c r="AC58" s="14"/>
-      <c r="AD58" s="13"/>
+      <c r="AD58" s="14"/>
       <c r="AE58" s="13"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AF58" s="13"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -12119,10 +12184,11 @@
       <c r="AA59" s="14"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
-      <c r="AD59" s="13"/>
+      <c r="AD59" s="14"/>
       <c r="AE59" s="13"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AF59" s="13"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -12152,10 +12218,11 @@
       <c r="AA60" s="14"/>
       <c r="AB60" s="14"/>
       <c r="AC60" s="14"/>
-      <c r="AD60" s="13"/>
+      <c r="AD60" s="14"/>
       <c r="AE60" s="13"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AF60" s="13"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -12185,10 +12252,11 @@
       <c r="AA61" s="14"/>
       <c r="AB61" s="14"/>
       <c r="AC61" s="14"/>
-      <c r="AD61" s="13"/>
+      <c r="AD61" s="14"/>
       <c r="AE61" s="13"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AF61" s="13"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -12218,10 +12286,11 @@
       <c r="AA62" s="14"/>
       <c r="AB62" s="14"/>
       <c r="AC62" s="14"/>
-      <c r="AD62" s="13"/>
+      <c r="AD62" s="14"/>
       <c r="AE62" s="13"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AF62" s="13"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -12251,10 +12320,11 @@
       <c r="AA63" s="14"/>
       <c r="AB63" s="14"/>
       <c r="AC63" s="14"/>
-      <c r="AD63" s="13"/>
+      <c r="AD63" s="14"/>
       <c r="AE63" s="13"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AF63" s="13"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -12284,10 +12354,11 @@
       <c r="AA64" s="14"/>
       <c r="AB64" s="14"/>
       <c r="AC64" s="14"/>
-      <c r="AD64" s="13"/>
+      <c r="AD64" s="14"/>
       <c r="AE64" s="13"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AF64" s="13"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -12317,10 +12388,11 @@
       <c r="AA65" s="14"/>
       <c r="AB65" s="14"/>
       <c r="AC65" s="14"/>
-      <c r="AD65" s="13"/>
+      <c r="AD65" s="14"/>
       <c r="AE65" s="13"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AF65" s="13"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -12350,10 +12422,11 @@
       <c r="AA66" s="14"/>
       <c r="AB66" s="14"/>
       <c r="AC66" s="14"/>
-      <c r="AD66" s="13"/>
+      <c r="AD66" s="14"/>
       <c r="AE66" s="13"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AF66" s="13"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -12383,10 +12456,11 @@
       <c r="AA67" s="14"/>
       <c r="AB67" s="14"/>
       <c r="AC67" s="14"/>
-      <c r="AD67" s="13"/>
+      <c r="AD67" s="14"/>
       <c r="AE67" s="13"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AF67" s="13"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -12416,10 +12490,11 @@
       <c r="AA68" s="14"/>
       <c r="AB68" s="14"/>
       <c r="AC68" s="14"/>
-      <c r="AD68" s="13"/>
+      <c r="AD68" s="14"/>
       <c r="AE68" s="13"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AF68" s="13"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -12449,10 +12524,11 @@
       <c r="AA69" s="14"/>
       <c r="AB69" s="14"/>
       <c r="AC69" s="14"/>
-      <c r="AD69" s="13"/>
+      <c r="AD69" s="14"/>
       <c r="AE69" s="13"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AF69" s="13"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -12482,10 +12558,11 @@
       <c r="AA70" s="14"/>
       <c r="AB70" s="14"/>
       <c r="AC70" s="14"/>
-      <c r="AD70" s="13"/>
+      <c r="AD70" s="14"/>
       <c r="AE70" s="13"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AF70" s="13"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -12515,10 +12592,11 @@
       <c r="AA71" s="14"/>
       <c r="AB71" s="14"/>
       <c r="AC71" s="14"/>
-      <c r="AD71" s="13"/>
+      <c r="AD71" s="14"/>
       <c r="AE71" s="13"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71" s="13"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -12548,10 +12626,11 @@
       <c r="AA72" s="14"/>
       <c r="AB72" s="14"/>
       <c r="AC72" s="14"/>
-      <c r="AD72" s="13"/>
+      <c r="AD72" s="14"/>
       <c r="AE72" s="13"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AF72" s="13"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -12581,10 +12660,11 @@
       <c r="AA73" s="14"/>
       <c r="AB73" s="14"/>
       <c r="AC73" s="14"/>
-      <c r="AD73" s="13"/>
+      <c r="AD73" s="14"/>
       <c r="AE73" s="13"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AF73" s="13"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -12614,10 +12694,11 @@
       <c r="AA74" s="14"/>
       <c r="AB74" s="14"/>
       <c r="AC74" s="14"/>
-      <c r="AD74" s="13"/>
+      <c r="AD74" s="14"/>
       <c r="AE74" s="13"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AF74" s="13"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -12647,10 +12728,11 @@
       <c r="AA75" s="14"/>
       <c r="AB75" s="14"/>
       <c r="AC75" s="14"/>
-      <c r="AD75" s="13"/>
+      <c r="AD75" s="14"/>
       <c r="AE75" s="13"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AF75" s="13"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -12680,10 +12762,11 @@
       <c r="AA76" s="14"/>
       <c r="AB76" s="14"/>
       <c r="AC76" s="14"/>
-      <c r="AD76" s="13"/>
+      <c r="AD76" s="14"/>
       <c r="AE76" s="13"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AF76" s="13"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -12713,10 +12796,11 @@
       <c r="AA77" s="14"/>
       <c r="AB77" s="14"/>
       <c r="AC77" s="14"/>
-      <c r="AD77" s="13"/>
+      <c r="AD77" s="14"/>
       <c r="AE77" s="13"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AF77" s="13"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -12746,10 +12830,11 @@
       <c r="AA78" s="14"/>
       <c r="AB78" s="14"/>
       <c r="AC78" s="14"/>
-      <c r="AD78" s="13"/>
+      <c r="AD78" s="14"/>
       <c r="AE78" s="13"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AF78" s="13"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -12779,10 +12864,11 @@
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
       <c r="AC79" s="14"/>
-      <c r="AD79" s="13"/>
+      <c r="AD79" s="14"/>
       <c r="AE79" s="13"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="AF79" s="13"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -12812,10 +12898,11 @@
       <c r="AA80" s="14"/>
       <c r="AB80" s="14"/>
       <c r="AC80" s="14"/>
-      <c r="AD80" s="13"/>
+      <c r="AD80" s="14"/>
       <c r="AE80" s="13"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="AF80" s="13"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -12845,10 +12932,11 @@
       <c r="AA81" s="14"/>
       <c r="AB81" s="14"/>
       <c r="AC81" s="14"/>
-      <c r="AD81" s="13"/>
+      <c r="AD81" s="14"/>
       <c r="AE81" s="13"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="AF81" s="13"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -12878,10 +12966,11 @@
       <c r="AA82" s="14"/>
       <c r="AB82" s="14"/>
       <c r="AC82" s="14"/>
-      <c r="AD82" s="13"/>
+      <c r="AD82" s="14"/>
       <c r="AE82" s="13"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="AF82" s="13"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -12911,10 +13000,11 @@
       <c r="AA83" s="14"/>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
-      <c r="AD83" s="13"/>
+      <c r="AD83" s="14"/>
       <c r="AE83" s="13"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="AF83" s="13"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -12944,10 +13034,11 @@
       <c r="AA84" s="14"/>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
-      <c r="AD84" s="13"/>
+      <c r="AD84" s="14"/>
       <c r="AE84" s="13"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="AF84" s="13"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -12977,10 +13068,11 @@
       <c r="AA85" s="14"/>
       <c r="AB85" s="14"/>
       <c r="AC85" s="14"/>
-      <c r="AD85" s="13"/>
+      <c r="AD85" s="14"/>
       <c r="AE85" s="13"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="AF85" s="13"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -13010,10 +13102,11 @@
       <c r="AA86" s="14"/>
       <c r="AB86" s="14"/>
       <c r="AC86" s="14"/>
-      <c r="AD86" s="13"/>
+      <c r="AD86" s="14"/>
       <c r="AE86" s="13"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="AF86" s="13"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -13043,10 +13136,11 @@
       <c r="AA87" s="14"/>
       <c r="AB87" s="14"/>
       <c r="AC87" s="14"/>
-      <c r="AD87" s="13"/>
+      <c r="AD87" s="14"/>
       <c r="AE87" s="13"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="AF87" s="13"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -13076,10 +13170,11 @@
       <c r="AA88" s="14"/>
       <c r="AB88" s="14"/>
       <c r="AC88" s="14"/>
-      <c r="AD88" s="13"/>
+      <c r="AD88" s="14"/>
       <c r="AE88" s="13"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="AF88" s="13"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -13109,10 +13204,11 @@
       <c r="AA89" s="14"/>
       <c r="AB89" s="14"/>
       <c r="AC89" s="14"/>
-      <c r="AD89" s="13"/>
+      <c r="AD89" s="14"/>
       <c r="AE89" s="13"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="AF89" s="13"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -13142,10 +13238,11 @@
       <c r="AA90" s="14"/>
       <c r="AB90" s="14"/>
       <c r="AC90" s="14"/>
-      <c r="AD90" s="13"/>
+      <c r="AD90" s="14"/>
       <c r="AE90" s="13"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="AF90" s="13"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -13175,10 +13272,11 @@
       <c r="AA91" s="14"/>
       <c r="AB91" s="14"/>
       <c r="AC91" s="14"/>
-      <c r="AD91" s="13"/>
+      <c r="AD91" s="14"/>
       <c r="AE91" s="13"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="AF91" s="13"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -13208,10 +13306,11 @@
       <c r="AA92" s="14"/>
       <c r="AB92" s="14"/>
       <c r="AC92" s="14"/>
-      <c r="AD92" s="13"/>
+      <c r="AD92" s="14"/>
       <c r="AE92" s="13"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="AF92" s="13"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -13241,10 +13340,11 @@
       <c r="AA93" s="14"/>
       <c r="AB93" s="14"/>
       <c r="AC93" s="14"/>
-      <c r="AD93" s="13"/>
+      <c r="AD93" s="14"/>
       <c r="AE93" s="13"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="AF93" s="13"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -13274,10 +13374,11 @@
       <c r="AA94" s="14"/>
       <c r="AB94" s="14"/>
       <c r="AC94" s="14"/>
-      <c r="AD94" s="13"/>
+      <c r="AD94" s="14"/>
       <c r="AE94" s="13"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="AF94" s="13"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -13307,10 +13408,11 @@
       <c r="AA95" s="14"/>
       <c r="AB95" s="14"/>
       <c r="AC95" s="14"/>
-      <c r="AD95" s="13"/>
+      <c r="AD95" s="14"/>
       <c r="AE95" s="13"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="AF95" s="13"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -13340,10 +13442,11 @@
       <c r="AA96" s="14"/>
       <c r="AB96" s="14"/>
       <c r="AC96" s="14"/>
-      <c r="AD96" s="13"/>
+      <c r="AD96" s="14"/>
       <c r="AE96" s="13"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="AF96" s="13"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -13373,10 +13476,11 @@
       <c r="AA97" s="14"/>
       <c r="AB97" s="14"/>
       <c r="AC97" s="14"/>
-      <c r="AD97" s="13"/>
+      <c r="AD97" s="14"/>
       <c r="AE97" s="13"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="AF97" s="13"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -13406,10 +13510,11 @@
       <c r="AA98" s="14"/>
       <c r="AB98" s="14"/>
       <c r="AC98" s="14"/>
-      <c r="AD98" s="13"/>
+      <c r="AD98" s="14"/>
       <c r="AE98" s="13"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="AF98" s="13"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -13439,10 +13544,11 @@
       <c r="AA99" s="14"/>
       <c r="AB99" s="14"/>
       <c r="AC99" s="14"/>
-      <c r="AD99" s="13"/>
+      <c r="AD99" s="14"/>
       <c r="AE99" s="13"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="AF99" s="13"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -13472,10 +13578,11 @@
       <c r="AA100" s="14"/>
       <c r="AB100" s="14"/>
       <c r="AC100" s="14"/>
-      <c r="AD100" s="13"/>
+      <c r="AD100" s="14"/>
       <c r="AE100" s="13"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="AF100" s="13"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -13505,10 +13612,11 @@
       <c r="AA101" s="14"/>
       <c r="AB101" s="14"/>
       <c r="AC101" s="14"/>
-      <c r="AD101" s="13"/>
+      <c r="AD101" s="14"/>
       <c r="AE101" s="13"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="AF101" s="13"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -13538,10 +13646,11 @@
       <c r="AA102" s="14"/>
       <c r="AB102" s="14"/>
       <c r="AC102" s="14"/>
-      <c r="AD102" s="13"/>
+      <c r="AD102" s="14"/>
       <c r="AE102" s="13"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="AF102" s="13"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -13571,10 +13680,11 @@
       <c r="AA103" s="14"/>
       <c r="AB103" s="14"/>
       <c r="AC103" s="14"/>
-      <c r="AD103" s="13"/>
+      <c r="AD103" s="14"/>
       <c r="AE103" s="13"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="AF103" s="13"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -13604,10 +13714,11 @@
       <c r="AA104" s="14"/>
       <c r="AB104" s="14"/>
       <c r="AC104" s="14"/>
-      <c r="AD104" s="13"/>
+      <c r="AD104" s="14"/>
       <c r="AE104" s="13"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="AF104" s="13"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -13637,10 +13748,11 @@
       <c r="AA105" s="14"/>
       <c r="AB105" s="14"/>
       <c r="AC105" s="14"/>
-      <c r="AD105" s="13"/>
+      <c r="AD105" s="14"/>
       <c r="AE105" s="13"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="AF105" s="13"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -13670,10 +13782,11 @@
       <c r="AA106" s="14"/>
       <c r="AB106" s="14"/>
       <c r="AC106" s="14"/>
-      <c r="AD106" s="13"/>
+      <c r="AD106" s="14"/>
       <c r="AE106" s="13"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="AF106" s="13"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -13703,10 +13816,11 @@
       <c r="AA107" s="14"/>
       <c r="AB107" s="14"/>
       <c r="AC107" s="14"/>
-      <c r="AD107" s="13"/>
+      <c r="AD107" s="14"/>
       <c r="AE107" s="13"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="AF107" s="13"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -13736,10 +13850,11 @@
       <c r="AA108" s="14"/>
       <c r="AB108" s="14"/>
       <c r="AC108" s="14"/>
-      <c r="AD108" s="13"/>
+      <c r="AD108" s="14"/>
       <c r="AE108" s="13"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="AF108" s="13"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -13769,10 +13884,11 @@
       <c r="AA109" s="14"/>
       <c r="AB109" s="14"/>
       <c r="AC109" s="14"/>
-      <c r="AD109" s="13"/>
+      <c r="AD109" s="14"/>
       <c r="AE109" s="13"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="AF109" s="13"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -13802,10 +13918,11 @@
       <c r="AA110" s="14"/>
       <c r="AB110" s="14"/>
       <c r="AC110" s="14"/>
-      <c r="AD110" s="13"/>
+      <c r="AD110" s="14"/>
       <c r="AE110" s="13"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="AF110" s="13"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -13835,10 +13952,11 @@
       <c r="AA111" s="14"/>
       <c r="AB111" s="14"/>
       <c r="AC111" s="14"/>
-      <c r="AD111" s="13"/>
+      <c r="AD111" s="14"/>
       <c r="AE111" s="13"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="AF111" s="13"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -13868,10 +13986,11 @@
       <c r="AA112" s="14"/>
       <c r="AB112" s="14"/>
       <c r="AC112" s="14"/>
-      <c r="AD112" s="13"/>
+      <c r="AD112" s="14"/>
       <c r="AE112" s="13"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="AF112" s="13"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -13901,10 +14020,11 @@
       <c r="AA113" s="14"/>
       <c r="AB113" s="14"/>
       <c r="AC113" s="14"/>
-      <c r="AD113" s="13"/>
+      <c r="AD113" s="14"/>
       <c r="AE113" s="13"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="AF113" s="13"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -13934,10 +14054,11 @@
       <c r="AA114" s="14"/>
       <c r="AB114" s="14"/>
       <c r="AC114" s="14"/>
-      <c r="AD114" s="13"/>
+      <c r="AD114" s="14"/>
       <c r="AE114" s="13"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="AF114" s="13"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -13967,10 +14088,11 @@
       <c r="AA115" s="14"/>
       <c r="AB115" s="14"/>
       <c r="AC115" s="14"/>
-      <c r="AD115" s="13"/>
+      <c r="AD115" s="14"/>
       <c r="AE115" s="13"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="AF115" s="13"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -14000,10 +14122,11 @@
       <c r="AA116" s="14"/>
       <c r="AB116" s="14"/>
       <c r="AC116" s="14"/>
-      <c r="AD116" s="13"/>
+      <c r="AD116" s="14"/>
       <c r="AE116" s="13"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="AF116" s="13"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -14033,10 +14156,11 @@
       <c r="AA117" s="14"/>
       <c r="AB117" s="14"/>
       <c r="AC117" s="14"/>
-      <c r="AD117" s="13"/>
+      <c r="AD117" s="14"/>
       <c r="AE117" s="13"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="AF117" s="13"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -14066,10 +14190,11 @@
       <c r="AA118" s="14"/>
       <c r="AB118" s="14"/>
       <c r="AC118" s="14"/>
-      <c r="AD118" s="13"/>
+      <c r="AD118" s="14"/>
       <c r="AE118" s="13"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="AF118" s="13"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -14099,10 +14224,11 @@
       <c r="AA119" s="14"/>
       <c r="AB119" s="14"/>
       <c r="AC119" s="14"/>
-      <c r="AD119" s="13"/>
+      <c r="AD119" s="14"/>
       <c r="AE119" s="13"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="AF119" s="13"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -14132,10 +14258,11 @@
       <c r="AA120" s="14"/>
       <c r="AB120" s="14"/>
       <c r="AC120" s="14"/>
-      <c r="AD120" s="13"/>
+      <c r="AD120" s="14"/>
       <c r="AE120" s="13"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="AF120" s="13"/>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -14165,10 +14292,11 @@
       <c r="AA121" s="14"/>
       <c r="AB121" s="14"/>
       <c r="AC121" s="14"/>
-      <c r="AD121" s="13"/>
+      <c r="AD121" s="14"/>
       <c r="AE121" s="13"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="AF121" s="13"/>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -14198,10 +14326,11 @@
       <c r="AA122" s="14"/>
       <c r="AB122" s="14"/>
       <c r="AC122" s="14"/>
-      <c r="AD122" s="13"/>
+      <c r="AD122" s="14"/>
       <c r="AE122" s="13"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="AF122" s="13"/>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -14231,10 +14360,11 @@
       <c r="AA123" s="14"/>
       <c r="AB123" s="14"/>
       <c r="AC123" s="14"/>
-      <c r="AD123" s="13"/>
+      <c r="AD123" s="14"/>
       <c r="AE123" s="13"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="AF123" s="13"/>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -14264,10 +14394,11 @@
       <c r="AA124" s="14"/>
       <c r="AB124" s="14"/>
       <c r="AC124" s="14"/>
-      <c r="AD124" s="13"/>
+      <c r="AD124" s="14"/>
       <c r="AE124" s="13"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="AF124" s="13"/>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -14297,10 +14428,11 @@
       <c r="AA125" s="14"/>
       <c r="AB125" s="14"/>
       <c r="AC125" s="14"/>
-      <c r="AD125" s="13"/>
+      <c r="AD125" s="14"/>
       <c r="AE125" s="13"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="AF125" s="13"/>
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -14330,10 +14462,11 @@
       <c r="AA126" s="14"/>
       <c r="AB126" s="14"/>
       <c r="AC126" s="14"/>
-      <c r="AD126" s="13"/>
+      <c r="AD126" s="14"/>
       <c r="AE126" s="13"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="AF126" s="13"/>
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -14363,10 +14496,11 @@
       <c r="AA127" s="14"/>
       <c r="AB127" s="14"/>
       <c r="AC127" s="14"/>
-      <c r="AD127" s="13"/>
+      <c r="AD127" s="14"/>
       <c r="AE127" s="13"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="AF127" s="13"/>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -14396,10 +14530,11 @@
       <c r="AA128" s="14"/>
       <c r="AB128" s="14"/>
       <c r="AC128" s="14"/>
-      <c r="AD128" s="13"/>
+      <c r="AD128" s="14"/>
       <c r="AE128" s="13"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="AF128" s="13"/>
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -14429,10 +14564,11 @@
       <c r="AA129" s="14"/>
       <c r="AB129" s="14"/>
       <c r="AC129" s="14"/>
-      <c r="AD129" s="13"/>
+      <c r="AD129" s="14"/>
       <c r="AE129" s="13"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="AF129" s="13"/>
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -14462,10 +14598,11 @@
       <c r="AA130" s="14"/>
       <c r="AB130" s="14"/>
       <c r="AC130" s="14"/>
-      <c r="AD130" s="13"/>
+      <c r="AD130" s="14"/>
       <c r="AE130" s="13"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="AF130" s="13"/>
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -14495,10 +14632,11 @@
       <c r="AA131" s="14"/>
       <c r="AB131" s="14"/>
       <c r="AC131" s="14"/>
-      <c r="AD131" s="13"/>
+      <c r="AD131" s="14"/>
       <c r="AE131" s="13"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="AF131" s="13"/>
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -14528,10 +14666,11 @@
       <c r="AA132" s="14"/>
       <c r="AB132" s="14"/>
       <c r="AC132" s="14"/>
-      <c r="AD132" s="13"/>
+      <c r="AD132" s="14"/>
       <c r="AE132" s="13"/>
-    </row>
-    <row r="133" spans="1:31">
+      <c r="AF132" s="13"/>
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -14561,10 +14700,11 @@
       <c r="AA133" s="14"/>
       <c r="AB133" s="14"/>
       <c r="AC133" s="14"/>
-      <c r="AD133" s="13"/>
+      <c r="AD133" s="14"/>
       <c r="AE133" s="13"/>
-    </row>
-    <row r="134" spans="1:31">
+      <c r="AF133" s="13"/>
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -14594,10 +14734,11 @@
       <c r="AA134" s="14"/>
       <c r="AB134" s="14"/>
       <c r="AC134" s="14"/>
-      <c r="AD134" s="13"/>
+      <c r="AD134" s="14"/>
       <c r="AE134" s="13"/>
-    </row>
-    <row r="135" spans="1:31">
+      <c r="AF134" s="13"/>
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -14627,10 +14768,11 @@
       <c r="AA135" s="14"/>
       <c r="AB135" s="14"/>
       <c r="AC135" s="14"/>
-      <c r="AD135" s="13"/>
+      <c r="AD135" s="14"/>
       <c r="AE135" s="13"/>
-    </row>
-    <row r="136" spans="1:31">
+      <c r="AF135" s="13"/>
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -14660,10 +14802,11 @@
       <c r="AA136" s="14"/>
       <c r="AB136" s="14"/>
       <c r="AC136" s="14"/>
-      <c r="AD136" s="13"/>
+      <c r="AD136" s="14"/>
       <c r="AE136" s="13"/>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="AF136" s="13"/>
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -14693,10 +14836,11 @@
       <c r="AA137" s="14"/>
       <c r="AB137" s="14"/>
       <c r="AC137" s="14"/>
-      <c r="AD137" s="13"/>
+      <c r="AD137" s="14"/>
       <c r="AE137" s="13"/>
-    </row>
-    <row r="138" spans="1:31">
+      <c r="AF137" s="13"/>
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -14726,10 +14870,11 @@
       <c r="AA138" s="14"/>
       <c r="AB138" s="14"/>
       <c r="AC138" s="14"/>
-      <c r="AD138" s="13"/>
+      <c r="AD138" s="14"/>
       <c r="AE138" s="13"/>
-    </row>
-    <row r="139" spans="1:31">
+      <c r="AF138" s="13"/>
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -14759,10 +14904,11 @@
       <c r="AA139" s="14"/>
       <c r="AB139" s="14"/>
       <c r="AC139" s="14"/>
-      <c r="AD139" s="13"/>
+      <c r="AD139" s="14"/>
       <c r="AE139" s="13"/>
-    </row>
-    <row r="140" spans="1:31">
+      <c r="AF139" s="13"/>
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -14792,10 +14938,11 @@
       <c r="AA140" s="14"/>
       <c r="AB140" s="14"/>
       <c r="AC140" s="14"/>
-      <c r="AD140" s="13"/>
+      <c r="AD140" s="14"/>
       <c r="AE140" s="13"/>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="AF140" s="13"/>
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -14825,10 +14972,11 @@
       <c r="AA141" s="14"/>
       <c r="AB141" s="14"/>
       <c r="AC141" s="14"/>
-      <c r="AD141" s="13"/>
+      <c r="AD141" s="14"/>
       <c r="AE141" s="13"/>
-    </row>
-    <row r="142" spans="1:31">
+      <c r="AF141" s="13"/>
+    </row>
+    <row r="142" spans="1:32">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -14858,10 +15006,11 @@
       <c r="AA142" s="14"/>
       <c r="AB142" s="14"/>
       <c r="AC142" s="14"/>
-      <c r="AD142" s="13"/>
+      <c r="AD142" s="14"/>
       <c r="AE142" s="13"/>
-    </row>
-    <row r="143" spans="1:31">
+      <c r="AF142" s="13"/>
+    </row>
+    <row r="143" spans="1:32">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -14891,10 +15040,11 @@
       <c r="AA143" s="14"/>
       <c r="AB143" s="14"/>
       <c r="AC143" s="14"/>
-      <c r="AD143" s="13"/>
+      <c r="AD143" s="14"/>
       <c r="AE143" s="13"/>
-    </row>
-    <row r="144" spans="1:31">
+      <c r="AF143" s="13"/>
+    </row>
+    <row r="144" spans="1:32">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -14924,10 +15074,11 @@
       <c r="AA144" s="14"/>
       <c r="AB144" s="14"/>
       <c r="AC144" s="14"/>
-      <c r="AD144" s="13"/>
+      <c r="AD144" s="14"/>
       <c r="AE144" s="13"/>
-    </row>
-    <row r="145" spans="1:31">
+      <c r="AF144" s="13"/>
+    </row>
+    <row r="145" spans="1:32">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -14957,10 +15108,11 @@
       <c r="AA145" s="14"/>
       <c r="AB145" s="14"/>
       <c r="AC145" s="14"/>
-      <c r="AD145" s="13"/>
+      <c r="AD145" s="14"/>
       <c r="AE145" s="13"/>
-    </row>
-    <row r="146" spans="1:31">
+      <c r="AF145" s="13"/>
+    </row>
+    <row r="146" spans="1:32">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -14990,10 +15142,11 @@
       <c r="AA146" s="14"/>
       <c r="AB146" s="14"/>
       <c r="AC146" s="14"/>
-      <c r="AD146" s="13"/>
+      <c r="AD146" s="14"/>
       <c r="AE146" s="13"/>
-    </row>
-    <row r="147" spans="1:31">
+      <c r="AF146" s="13"/>
+    </row>
+    <row r="147" spans="1:32">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -15023,10 +15176,11 @@
       <c r="AA147" s="14"/>
       <c r="AB147" s="14"/>
       <c r="AC147" s="14"/>
-      <c r="AD147" s="13"/>
+      <c r="AD147" s="14"/>
       <c r="AE147" s="13"/>
-    </row>
-    <row r="148" spans="1:31">
+      <c r="AF147" s="13"/>
+    </row>
+    <row r="148" spans="1:32">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -15056,10 +15210,11 @@
       <c r="AA148" s="14"/>
       <c r="AB148" s="14"/>
       <c r="AC148" s="14"/>
-      <c r="AD148" s="13"/>
+      <c r="AD148" s="14"/>
       <c r="AE148" s="13"/>
-    </row>
-    <row r="149" spans="1:31">
+      <c r="AF148" s="13"/>
+    </row>
+    <row r="149" spans="1:32">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -15089,10 +15244,11 @@
       <c r="AA149" s="14"/>
       <c r="AB149" s="14"/>
       <c r="AC149" s="14"/>
-      <c r="AD149" s="13"/>
+      <c r="AD149" s="14"/>
       <c r="AE149" s="13"/>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="AF149" s="13"/>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -15122,10 +15278,11 @@
       <c r="AA150" s="14"/>
       <c r="AB150" s="14"/>
       <c r="AC150" s="14"/>
-      <c r="AD150" s="13"/>
+      <c r="AD150" s="14"/>
       <c r="AE150" s="13"/>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="AF150" s="13"/>
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -15155,10 +15312,11 @@
       <c r="AA151" s="14"/>
       <c r="AB151" s="14"/>
       <c r="AC151" s="14"/>
-      <c r="AD151" s="13"/>
+      <c r="AD151" s="14"/>
       <c r="AE151" s="13"/>
-    </row>
-    <row r="152" spans="1:31">
+      <c r="AF151" s="13"/>
+    </row>
+    <row r="152" spans="1:32">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -15188,10 +15346,11 @@
       <c r="AA152" s="14"/>
       <c r="AB152" s="14"/>
       <c r="AC152" s="14"/>
-      <c r="AD152" s="13"/>
+      <c r="AD152" s="14"/>
       <c r="AE152" s="13"/>
-    </row>
-    <row r="153" spans="1:31">
+      <c r="AF152" s="13"/>
+    </row>
+    <row r="153" spans="1:32">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -15221,10 +15380,11 @@
       <c r="AA153" s="14"/>
       <c r="AB153" s="14"/>
       <c r="AC153" s="14"/>
-      <c r="AD153" s="13"/>
+      <c r="AD153" s="14"/>
       <c r="AE153" s="13"/>
-    </row>
-    <row r="154" spans="1:31">
+      <c r="AF153" s="13"/>
+    </row>
+    <row r="154" spans="1:32">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -15254,10 +15414,11 @@
       <c r="AA154" s="14"/>
       <c r="AB154" s="14"/>
       <c r="AC154" s="14"/>
-      <c r="AD154" s="13"/>
+      <c r="AD154" s="14"/>
       <c r="AE154" s="13"/>
-    </row>
-    <row r="155" spans="1:31">
+      <c r="AF154" s="13"/>
+    </row>
+    <row r="155" spans="1:32">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -15287,10 +15448,11 @@
       <c r="AA155" s="14"/>
       <c r="AB155" s="14"/>
       <c r="AC155" s="14"/>
-      <c r="AD155" s="13"/>
+      <c r="AD155" s="14"/>
       <c r="AE155" s="13"/>
-    </row>
-    <row r="156" spans="1:31">
+      <c r="AF155" s="13"/>
+    </row>
+    <row r="156" spans="1:32">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -15320,10 +15482,11 @@
       <c r="AA156" s="14"/>
       <c r="AB156" s="14"/>
       <c r="AC156" s="14"/>
-      <c r="AD156" s="13"/>
+      <c r="AD156" s="14"/>
       <c r="AE156" s="13"/>
-    </row>
-    <row r="157" spans="1:31">
+      <c r="AF156" s="13"/>
+    </row>
+    <row r="157" spans="1:32">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -15353,10 +15516,11 @@
       <c r="AA157" s="14"/>
       <c r="AB157" s="14"/>
       <c r="AC157" s="14"/>
-      <c r="AD157" s="13"/>
+      <c r="AD157" s="14"/>
       <c r="AE157" s="13"/>
-    </row>
-    <row r="158" spans="1:31">
+      <c r="AF157" s="13"/>
+    </row>
+    <row r="158" spans="1:32">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -15386,10 +15550,11 @@
       <c r="AA158" s="14"/>
       <c r="AB158" s="14"/>
       <c r="AC158" s="14"/>
-      <c r="AD158" s="13"/>
+      <c r="AD158" s="14"/>
       <c r="AE158" s="13"/>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="AF158" s="13"/>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -15419,10 +15584,11 @@
       <c r="AA159" s="14"/>
       <c r="AB159" s="14"/>
       <c r="AC159" s="14"/>
-      <c r="AD159" s="13"/>
+      <c r="AD159" s="14"/>
       <c r="AE159" s="13"/>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="AF159" s="13"/>
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -15452,10 +15618,11 @@
       <c r="AA160" s="14"/>
       <c r="AB160" s="14"/>
       <c r="AC160" s="14"/>
-      <c r="AD160" s="13"/>
+      <c r="AD160" s="14"/>
       <c r="AE160" s="13"/>
-    </row>
-    <row r="161" spans="1:31">
+      <c r="AF160" s="13"/>
+    </row>
+    <row r="161" spans="1:32">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -15485,10 +15652,11 @@
       <c r="AA161" s="14"/>
       <c r="AB161" s="14"/>
       <c r="AC161" s="14"/>
-      <c r="AD161" s="13"/>
+      <c r="AD161" s="14"/>
       <c r="AE161" s="13"/>
-    </row>
-    <row r="162" spans="1:31">
+      <c r="AF161" s="13"/>
+    </row>
+    <row r="162" spans="1:32">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -15518,10 +15686,11 @@
       <c r="AA162" s="14"/>
       <c r="AB162" s="14"/>
       <c r="AC162" s="14"/>
-      <c r="AD162" s="13"/>
+      <c r="AD162" s="14"/>
       <c r="AE162" s="13"/>
-    </row>
-    <row r="163" spans="1:31">
+      <c r="AF162" s="13"/>
+    </row>
+    <row r="163" spans="1:32">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -15551,10 +15720,11 @@
       <c r="AA163" s="14"/>
       <c r="AB163" s="14"/>
       <c r="AC163" s="14"/>
-      <c r="AD163" s="13"/>
+      <c r="AD163" s="14"/>
       <c r="AE163" s="13"/>
-    </row>
-    <row r="164" spans="1:31">
+      <c r="AF163" s="13"/>
+    </row>
+    <row r="164" spans="1:32">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -15584,10 +15754,11 @@
       <c r="AA164" s="14"/>
       <c r="AB164" s="14"/>
       <c r="AC164" s="14"/>
-      <c r="AD164" s="13"/>
+      <c r="AD164" s="14"/>
       <c r="AE164" s="13"/>
-    </row>
-    <row r="165" spans="1:31">
+      <c r="AF164" s="13"/>
+    </row>
+    <row r="165" spans="1:32">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -15617,10 +15788,11 @@
       <c r="AA165" s="14"/>
       <c r="AB165" s="14"/>
       <c r="AC165" s="14"/>
-      <c r="AD165" s="13"/>
+      <c r="AD165" s="14"/>
       <c r="AE165" s="13"/>
-    </row>
-    <row r="166" spans="1:31">
+      <c r="AF165" s="13"/>
+    </row>
+    <row r="166" spans="1:32">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -15650,10 +15822,11 @@
       <c r="AA166" s="14"/>
       <c r="AB166" s="14"/>
       <c r="AC166" s="14"/>
-      <c r="AD166" s="13"/>
+      <c r="AD166" s="14"/>
       <c r="AE166" s="13"/>
-    </row>
-    <row r="167" spans="1:31">
+      <c r="AF166" s="13"/>
+    </row>
+    <row r="167" spans="1:32">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -15683,10 +15856,11 @@
       <c r="AA167" s="14"/>
       <c r="AB167" s="14"/>
       <c r="AC167" s="14"/>
-      <c r="AD167" s="13"/>
+      <c r="AD167" s="14"/>
       <c r="AE167" s="13"/>
-    </row>
-    <row r="168" spans="1:31">
+      <c r="AF167" s="13"/>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -15716,10 +15890,11 @@
       <c r="AA168" s="14"/>
       <c r="AB168" s="14"/>
       <c r="AC168" s="14"/>
-      <c r="AD168" s="13"/>
+      <c r="AD168" s="14"/>
       <c r="AE168" s="13"/>
-    </row>
-    <row r="169" spans="1:31">
+      <c r="AF168" s="13"/>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -15749,10 +15924,11 @@
       <c r="AA169" s="14"/>
       <c r="AB169" s="14"/>
       <c r="AC169" s="14"/>
-      <c r="AD169" s="13"/>
+      <c r="AD169" s="14"/>
       <c r="AE169" s="13"/>
-    </row>
-    <row r="170" spans="1:31">
+      <c r="AF169" s="13"/>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -15782,10 +15958,11 @@
       <c r="AA170" s="14"/>
       <c r="AB170" s="14"/>
       <c r="AC170" s="14"/>
-      <c r="AD170" s="13"/>
+      <c r="AD170" s="14"/>
       <c r="AE170" s="13"/>
-    </row>
-    <row r="171" spans="1:31">
+      <c r="AF170" s="13"/>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -15815,10 +15992,11 @@
       <c r="AA171" s="14"/>
       <c r="AB171" s="14"/>
       <c r="AC171" s="14"/>
-      <c r="AD171" s="13"/>
+      <c r="AD171" s="14"/>
       <c r="AE171" s="13"/>
-    </row>
-    <row r="172" spans="1:31">
+      <c r="AF171" s="13"/>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -15848,10 +16026,11 @@
       <c r="AA172" s="14"/>
       <c r="AB172" s="14"/>
       <c r="AC172" s="14"/>
-      <c r="AD172" s="13"/>
+      <c r="AD172" s="14"/>
       <c r="AE172" s="13"/>
-    </row>
-    <row r="173" spans="1:31">
+      <c r="AF172" s="13"/>
+    </row>
+    <row r="173" spans="1:32">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -15881,10 +16060,11 @@
       <c r="AA173" s="14"/>
       <c r="AB173" s="14"/>
       <c r="AC173" s="14"/>
-      <c r="AD173" s="13"/>
+      <c r="AD173" s="14"/>
       <c r="AE173" s="13"/>
-    </row>
-    <row r="174" spans="1:31">
+      <c r="AF173" s="13"/>
+    </row>
+    <row r="174" spans="1:32">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -15914,10 +16094,11 @@
       <c r="AA174" s="14"/>
       <c r="AB174" s="14"/>
       <c r="AC174" s="14"/>
-      <c r="AD174" s="13"/>
+      <c r="AD174" s="14"/>
       <c r="AE174" s="13"/>
-    </row>
-    <row r="175" spans="1:31">
+      <c r="AF174" s="13"/>
+    </row>
+    <row r="175" spans="1:32">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -15947,10 +16128,11 @@
       <c r="AA175" s="14"/>
       <c r="AB175" s="14"/>
       <c r="AC175" s="14"/>
-      <c r="AD175" s="13"/>
+      <c r="AD175" s="14"/>
       <c r="AE175" s="13"/>
-    </row>
-    <row r="176" spans="1:31">
+      <c r="AF175" s="13"/>
+    </row>
+    <row r="176" spans="1:32">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -15980,10 +16162,11 @@
       <c r="AA176" s="14"/>
       <c r="AB176" s="14"/>
       <c r="AC176" s="14"/>
-      <c r="AD176" s="13"/>
+      <c r="AD176" s="14"/>
       <c r="AE176" s="13"/>
-    </row>
-    <row r="177" spans="1:31">
+      <c r="AF176" s="13"/>
+    </row>
+    <row r="177" spans="1:32">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -16013,10 +16196,11 @@
       <c r="AA177" s="14"/>
       <c r="AB177" s="14"/>
       <c r="AC177" s="14"/>
-      <c r="AD177" s="13"/>
+      <c r="AD177" s="14"/>
       <c r="AE177" s="13"/>
-    </row>
-    <row r="178" spans="1:31">
+      <c r="AF177" s="13"/>
+    </row>
+    <row r="178" spans="1:32">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -16046,10 +16230,11 @@
       <c r="AA178" s="14"/>
       <c r="AB178" s="14"/>
       <c r="AC178" s="14"/>
-      <c r="AD178" s="13"/>
+      <c r="AD178" s="14"/>
       <c r="AE178" s="13"/>
-    </row>
-    <row r="179" spans="1:31">
+      <c r="AF178" s="13"/>
+    </row>
+    <row r="179" spans="1:32">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -16079,10 +16264,11 @@
       <c r="AA179" s="14"/>
       <c r="AB179" s="14"/>
       <c r="AC179" s="14"/>
-      <c r="AD179" s="13"/>
+      <c r="AD179" s="14"/>
       <c r="AE179" s="13"/>
-    </row>
-    <row r="180" spans="1:31">
+      <c r="AF179" s="13"/>
+    </row>
+    <row r="180" spans="1:32">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -16112,10 +16298,11 @@
       <c r="AA180" s="14"/>
       <c r="AB180" s="14"/>
       <c r="AC180" s="14"/>
-      <c r="AD180" s="13"/>
+      <c r="AD180" s="14"/>
       <c r="AE180" s="13"/>
-    </row>
-    <row r="181" spans="1:31">
+      <c r="AF180" s="13"/>
+    </row>
+    <row r="181" spans="1:32">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -16145,10 +16332,11 @@
       <c r="AA181" s="14"/>
       <c r="AB181" s="14"/>
       <c r="AC181" s="14"/>
-      <c r="AD181" s="13"/>
+      <c r="AD181" s="14"/>
       <c r="AE181" s="13"/>
-    </row>
-    <row r="182" spans="1:31">
+      <c r="AF181" s="13"/>
+    </row>
+    <row r="182" spans="1:32">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -16178,10 +16366,11 @@
       <c r="AA182" s="14"/>
       <c r="AB182" s="14"/>
       <c r="AC182" s="14"/>
-      <c r="AD182" s="13"/>
+      <c r="AD182" s="14"/>
       <c r="AE182" s="13"/>
-    </row>
-    <row r="183" spans="1:31">
+      <c r="AF182" s="13"/>
+    </row>
+    <row r="183" spans="1:32">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -16211,10 +16400,11 @@
       <c r="AA183" s="14"/>
       <c r="AB183" s="14"/>
       <c r="AC183" s="14"/>
-      <c r="AD183" s="13"/>
+      <c r="AD183" s="14"/>
       <c r="AE183" s="13"/>
-    </row>
-    <row r="184" spans="1:31">
+      <c r="AF183" s="13"/>
+    </row>
+    <row r="184" spans="1:32">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -16244,10 +16434,11 @@
       <c r="AA184" s="14"/>
       <c r="AB184" s="14"/>
       <c r="AC184" s="14"/>
-      <c r="AD184" s="13"/>
+      <c r="AD184" s="14"/>
       <c r="AE184" s="13"/>
-    </row>
-    <row r="185" spans="1:31">
+      <c r="AF184" s="13"/>
+    </row>
+    <row r="185" spans="1:32">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -16277,10 +16468,11 @@
       <c r="AA185" s="14"/>
       <c r="AB185" s="14"/>
       <c r="AC185" s="14"/>
-      <c r="AD185" s="13"/>
+      <c r="AD185" s="14"/>
       <c r="AE185" s="13"/>
-    </row>
-    <row r="186" spans="1:31">
+      <c r="AF185" s="13"/>
+    </row>
+    <row r="186" spans="1:32">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -16310,10 +16502,11 @@
       <c r="AA186" s="14"/>
       <c r="AB186" s="14"/>
       <c r="AC186" s="14"/>
-      <c r="AD186" s="13"/>
+      <c r="AD186" s="14"/>
       <c r="AE186" s="13"/>
-    </row>
-    <row r="187" spans="1:31">
+      <c r="AF186" s="13"/>
+    </row>
+    <row r="187" spans="1:32">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -16343,10 +16536,11 @@
       <c r="AA187" s="14"/>
       <c r="AB187" s="14"/>
       <c r="AC187" s="14"/>
-      <c r="AD187" s="13"/>
+      <c r="AD187" s="14"/>
       <c r="AE187" s="13"/>
-    </row>
-    <row r="188" spans="1:31">
+      <c r="AF187" s="13"/>
+    </row>
+    <row r="188" spans="1:32">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -16376,10 +16570,11 @@
       <c r="AA188" s="14"/>
       <c r="AB188" s="14"/>
       <c r="AC188" s="14"/>
-      <c r="AD188" s="13"/>
+      <c r="AD188" s="14"/>
       <c r="AE188" s="13"/>
-    </row>
-    <row r="189" spans="1:31">
+      <c r="AF188" s="13"/>
+    </row>
+    <row r="189" spans="1:32">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -16409,10 +16604,11 @@
       <c r="AA189" s="14"/>
       <c r="AB189" s="14"/>
       <c r="AC189" s="14"/>
-      <c r="AD189" s="13"/>
+      <c r="AD189" s="14"/>
       <c r="AE189" s="13"/>
-    </row>
-    <row r="190" spans="1:31">
+      <c r="AF189" s="13"/>
+    </row>
+    <row r="190" spans="1:32">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -16442,10 +16638,11 @@
       <c r="AA190" s="14"/>
       <c r="AB190" s="14"/>
       <c r="AC190" s="14"/>
-      <c r="AD190" s="13"/>
+      <c r="AD190" s="14"/>
       <c r="AE190" s="13"/>
-    </row>
-    <row r="191" spans="1:31">
+      <c r="AF190" s="13"/>
+    </row>
+    <row r="191" spans="1:32">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -16475,10 +16672,11 @@
       <c r="AA191" s="14"/>
       <c r="AB191" s="14"/>
       <c r="AC191" s="14"/>
-      <c r="AD191" s="13"/>
+      <c r="AD191" s="14"/>
       <c r="AE191" s="13"/>
-    </row>
-    <row r="192" spans="1:31">
+      <c r="AF191" s="13"/>
+    </row>
+    <row r="192" spans="1:32">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -16508,10 +16706,11 @@
       <c r="AA192" s="14"/>
       <c r="AB192" s="14"/>
       <c r="AC192" s="14"/>
-      <c r="AD192" s="13"/>
+      <c r="AD192" s="14"/>
       <c r="AE192" s="13"/>
-    </row>
-    <row r="193" spans="1:31">
+      <c r="AF192" s="13"/>
+    </row>
+    <row r="193" spans="1:32">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -16541,10 +16740,11 @@
       <c r="AA193" s="14"/>
       <c r="AB193" s="14"/>
       <c r="AC193" s="14"/>
-      <c r="AD193" s="13"/>
+      <c r="AD193" s="14"/>
       <c r="AE193" s="13"/>
-    </row>
-    <row r="194" spans="1:31">
+      <c r="AF193" s="13"/>
+    </row>
+    <row r="194" spans="1:32">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -16574,10 +16774,11 @@
       <c r="AA194" s="14"/>
       <c r="AB194" s="14"/>
       <c r="AC194" s="14"/>
-      <c r="AD194" s="13"/>
+      <c r="AD194" s="14"/>
       <c r="AE194" s="13"/>
-    </row>
-    <row r="195" spans="1:31">
+      <c r="AF194" s="13"/>
+    </row>
+    <row r="195" spans="1:32">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -16607,10 +16808,11 @@
       <c r="AA195" s="14"/>
       <c r="AB195" s="14"/>
       <c r="AC195" s="14"/>
-      <c r="AD195" s="13"/>
+      <c r="AD195" s="14"/>
       <c r="AE195" s="13"/>
-    </row>
-    <row r="196" spans="1:31">
+      <c r="AF195" s="13"/>
+    </row>
+    <row r="196" spans="1:32">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -16640,10 +16842,11 @@
       <c r="AA196" s="14"/>
       <c r="AB196" s="14"/>
       <c r="AC196" s="14"/>
-      <c r="AD196" s="13"/>
+      <c r="AD196" s="14"/>
       <c r="AE196" s="13"/>
-    </row>
-    <row r="197" spans="1:31">
+      <c r="AF196" s="13"/>
+    </row>
+    <row r="197" spans="1:32">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -16673,10 +16876,11 @@
       <c r="AA197" s="14"/>
       <c r="AB197" s="14"/>
       <c r="AC197" s="14"/>
-      <c r="AD197" s="13"/>
+      <c r="AD197" s="14"/>
       <c r="AE197" s="13"/>
-    </row>
-    <row r="198" spans="1:31">
+      <c r="AF197" s="13"/>
+    </row>
+    <row r="198" spans="1:32">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -16706,10 +16910,11 @@
       <c r="AA198" s="14"/>
       <c r="AB198" s="14"/>
       <c r="AC198" s="14"/>
-      <c r="AD198" s="13"/>
+      <c r="AD198" s="14"/>
       <c r="AE198" s="13"/>
-    </row>
-    <row r="199" spans="1:31">
+      <c r="AF198" s="13"/>
+    </row>
+    <row r="199" spans="1:32">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -16739,10 +16944,11 @@
       <c r="AA199" s="14"/>
       <c r="AB199" s="14"/>
       <c r="AC199" s="14"/>
-      <c r="AD199" s="13"/>
+      <c r="AD199" s="14"/>
       <c r="AE199" s="13"/>
-    </row>
-    <row r="200" spans="1:31">
+      <c r="AF199" s="13"/>
+    </row>
+    <row r="200" spans="1:32">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -16772,10 +16978,11 @@
       <c r="AA200" s="14"/>
       <c r="AB200" s="14"/>
       <c r="AC200" s="14"/>
-      <c r="AD200" s="13"/>
+      <c r="AD200" s="14"/>
       <c r="AE200" s="13"/>
-    </row>
-    <row r="201" spans="1:31">
+      <c r="AF200" s="13"/>
+    </row>
+    <row r="201" spans="1:32">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -16805,10 +17012,11 @@
       <c r="AA201" s="14"/>
       <c r="AB201" s="14"/>
       <c r="AC201" s="14"/>
-      <c r="AD201" s="13"/>
+      <c r="AD201" s="14"/>
       <c r="AE201" s="13"/>
-    </row>
-    <row r="202" spans="1:31">
+      <c r="AF201" s="13"/>
+    </row>
+    <row r="202" spans="1:32">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -16838,10 +17046,11 @@
       <c r="AA202" s="14"/>
       <c r="AB202" s="14"/>
       <c r="AC202" s="14"/>
-      <c r="AD202" s="13"/>
+      <c r="AD202" s="14"/>
       <c r="AE202" s="13"/>
-    </row>
-    <row r="203" spans="1:31">
+      <c r="AF202" s="13"/>
+    </row>
+    <row r="203" spans="1:32">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -16871,10 +17080,11 @@
       <c r="AA203" s="14"/>
       <c r="AB203" s="14"/>
       <c r="AC203" s="14"/>
-      <c r="AD203" s="13"/>
+      <c r="AD203" s="14"/>
       <c r="AE203" s="13"/>
-    </row>
-    <row r="204" spans="1:31">
+      <c r="AF203" s="13"/>
+    </row>
+    <row r="204" spans="1:32">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -16904,10 +17114,11 @@
       <c r="AA204" s="14"/>
       <c r="AB204" s="14"/>
       <c r="AC204" s="14"/>
-      <c r="AD204" s="13"/>
+      <c r="AD204" s="14"/>
       <c r="AE204" s="13"/>
-    </row>
-    <row r="205" spans="1:31">
+      <c r="AF204" s="13"/>
+    </row>
+    <row r="205" spans="1:32">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -16937,10 +17148,11 @@
       <c r="AA205" s="14"/>
       <c r="AB205" s="14"/>
       <c r="AC205" s="14"/>
-      <c r="AD205" s="13"/>
+      <c r="AD205" s="14"/>
       <c r="AE205" s="13"/>
-    </row>
-    <row r="206" spans="1:31">
+      <c r="AF205" s="13"/>
+    </row>
+    <row r="206" spans="1:32">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -16970,10 +17182,11 @@
       <c r="AA206" s="14"/>
       <c r="AB206" s="14"/>
       <c r="AC206" s="14"/>
-      <c r="AD206" s="13"/>
+      <c r="AD206" s="14"/>
       <c r="AE206" s="13"/>
-    </row>
-    <row r="207" spans="1:31">
+      <c r="AF206" s="13"/>
+    </row>
+    <row r="207" spans="1:32">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -17003,10 +17216,11 @@
       <c r="AA207" s="14"/>
       <c r="AB207" s="14"/>
       <c r="AC207" s="14"/>
-      <c r="AD207" s="13"/>
+      <c r="AD207" s="14"/>
       <c r="AE207" s="13"/>
-    </row>
-    <row r="208" spans="1:31">
+      <c r="AF207" s="13"/>
+    </row>
+    <row r="208" spans="1:32">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -17036,10 +17250,11 @@
       <c r="AA208" s="14"/>
       <c r="AB208" s="14"/>
       <c r="AC208" s="14"/>
-      <c r="AD208" s="13"/>
+      <c r="AD208" s="14"/>
       <c r="AE208" s="13"/>
-    </row>
-    <row r="209" spans="1:31">
+      <c r="AF208" s="13"/>
+    </row>
+    <row r="209" spans="1:32">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -17069,10 +17284,11 @@
       <c r="AA209" s="14"/>
       <c r="AB209" s="14"/>
       <c r="AC209" s="14"/>
-      <c r="AD209" s="13"/>
+      <c r="AD209" s="14"/>
       <c r="AE209" s="13"/>
-    </row>
-    <row r="210" spans="1:31">
+      <c r="AF209" s="13"/>
+    </row>
+    <row r="210" spans="1:32">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -17102,10 +17318,11 @@
       <c r="AA210" s="14"/>
       <c r="AB210" s="14"/>
       <c r="AC210" s="14"/>
-      <c r="AD210" s="13"/>
+      <c r="AD210" s="14"/>
       <c r="AE210" s="13"/>
-    </row>
-    <row r="211" spans="1:31">
+      <c r="AF210" s="13"/>
+    </row>
+    <row r="211" spans="1:32">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -17135,10 +17352,11 @@
       <c r="AA211" s="14"/>
       <c r="AB211" s="14"/>
       <c r="AC211" s="14"/>
-      <c r="AD211" s="13"/>
+      <c r="AD211" s="14"/>
       <c r="AE211" s="13"/>
-    </row>
-    <row r="212" spans="1:31">
+      <c r="AF211" s="13"/>
+    </row>
+    <row r="212" spans="1:32">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -17168,10 +17386,11 @@
       <c r="AA212" s="14"/>
       <c r="AB212" s="14"/>
       <c r="AC212" s="14"/>
-      <c r="AD212" s="13"/>
+      <c r="AD212" s="14"/>
       <c r="AE212" s="13"/>
-    </row>
-    <row r="213" spans="1:31">
+      <c r="AF212" s="13"/>
+    </row>
+    <row r="213" spans="1:32">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -17201,10 +17420,11 @@
       <c r="AA213" s="14"/>
       <c r="AB213" s="14"/>
       <c r="AC213" s="14"/>
-      <c r="AD213" s="13"/>
+      <c r="AD213" s="14"/>
       <c r="AE213" s="13"/>
-    </row>
-    <row r="214" spans="1:31">
+      <c r="AF213" s="13"/>
+    </row>
+    <row r="214" spans="1:32">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -17234,10 +17454,11 @@
       <c r="AA214" s="14"/>
       <c r="AB214" s="14"/>
       <c r="AC214" s="14"/>
-      <c r="AD214" s="13"/>
+      <c r="AD214" s="14"/>
       <c r="AE214" s="13"/>
-    </row>
-    <row r="215" spans="1:31">
+      <c r="AF214" s="13"/>
+    </row>
+    <row r="215" spans="1:32">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -17267,10 +17488,11 @@
       <c r="AA215" s="14"/>
       <c r="AB215" s="14"/>
       <c r="AC215" s="14"/>
-      <c r="AD215" s="13"/>
+      <c r="AD215" s="14"/>
       <c r="AE215" s="13"/>
-    </row>
-    <row r="216" spans="1:31">
+      <c r="AF215" s="13"/>
+    </row>
+    <row r="216" spans="1:32">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -17300,10 +17522,11 @@
       <c r="AA216" s="14"/>
       <c r="AB216" s="14"/>
       <c r="AC216" s="14"/>
-      <c r="AD216" s="13"/>
+      <c r="AD216" s="14"/>
       <c r="AE216" s="13"/>
-    </row>
-    <row r="217" spans="1:31">
+      <c r="AF216" s="13"/>
+    </row>
+    <row r="217" spans="1:32">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -17333,10 +17556,11 @@
       <c r="AA217" s="14"/>
       <c r="AB217" s="14"/>
       <c r="AC217" s="14"/>
-      <c r="AD217" s="13"/>
+      <c r="AD217" s="14"/>
       <c r="AE217" s="13"/>
-    </row>
-    <row r="218" spans="1:31">
+      <c r="AF217" s="13"/>
+    </row>
+    <row r="218" spans="1:32">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -17366,10 +17590,11 @@
       <c r="AA218" s="14"/>
       <c r="AB218" s="14"/>
       <c r="AC218" s="14"/>
-      <c r="AD218" s="13"/>
+      <c r="AD218" s="14"/>
       <c r="AE218" s="13"/>
-    </row>
-    <row r="219" spans="1:31">
+      <c r="AF218" s="13"/>
+    </row>
+    <row r="219" spans="1:32">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -17399,10 +17624,11 @@
       <c r="AA219" s="14"/>
       <c r="AB219" s="14"/>
       <c r="AC219" s="14"/>
-      <c r="AD219" s="13"/>
+      <c r="AD219" s="14"/>
       <c r="AE219" s="13"/>
-    </row>
-    <row r="220" spans="1:31">
+      <c r="AF219" s="13"/>
+    </row>
+    <row r="220" spans="1:32">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -17432,10 +17658,11 @@
       <c r="AA220" s="14"/>
       <c r="AB220" s="14"/>
       <c r="AC220" s="14"/>
-      <c r="AD220" s="13"/>
+      <c r="AD220" s="14"/>
       <c r="AE220" s="13"/>
-    </row>
-    <row r="221" spans="1:31">
+      <c r="AF220" s="13"/>
+    </row>
+    <row r="221" spans="1:32">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -17465,10 +17692,11 @@
       <c r="AA221" s="14"/>
       <c r="AB221" s="14"/>
       <c r="AC221" s="14"/>
-      <c r="AD221" s="13"/>
+      <c r="AD221" s="14"/>
       <c r="AE221" s="13"/>
-    </row>
-    <row r="222" spans="1:31">
+      <c r="AF221" s="13"/>
+    </row>
+    <row r="222" spans="1:32">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -17498,10 +17726,11 @@
       <c r="AA222" s="14"/>
       <c r="AB222" s="14"/>
       <c r="AC222" s="14"/>
-      <c r="AD222" s="13"/>
+      <c r="AD222" s="14"/>
       <c r="AE222" s="13"/>
-    </row>
-    <row r="223" spans="1:31">
+      <c r="AF222" s="13"/>
+    </row>
+    <row r="223" spans="1:32">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -17531,10 +17760,11 @@
       <c r="AA223" s="14"/>
       <c r="AB223" s="14"/>
       <c r="AC223" s="14"/>
-      <c r="AD223" s="13"/>
+      <c r="AD223" s="14"/>
       <c r="AE223" s="13"/>
-    </row>
-    <row r="224" spans="1:31">
+      <c r="AF223" s="13"/>
+    </row>
+    <row r="224" spans="1:32">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -17564,10 +17794,11 @@
       <c r="AA224" s="14"/>
       <c r="AB224" s="14"/>
       <c r="AC224" s="14"/>
-      <c r="AD224" s="13"/>
+      <c r="AD224" s="14"/>
       <c r="AE224" s="13"/>
-    </row>
-    <row r="225" spans="1:31">
+      <c r="AF224" s="13"/>
+    </row>
+    <row r="225" spans="1:32">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -17597,10 +17828,11 @@
       <c r="AA225" s="14"/>
       <c r="AB225" s="14"/>
       <c r="AC225" s="14"/>
-      <c r="AD225" s="13"/>
+      <c r="AD225" s="14"/>
       <c r="AE225" s="13"/>
-    </row>
-    <row r="226" spans="1:31">
+      <c r="AF225" s="13"/>
+    </row>
+    <row r="226" spans="1:32">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -17630,10 +17862,11 @@
       <c r="AA226" s="14"/>
       <c r="AB226" s="14"/>
       <c r="AC226" s="14"/>
-      <c r="AD226" s="13"/>
+      <c r="AD226" s="14"/>
       <c r="AE226" s="13"/>
-    </row>
-    <row r="227" spans="1:31">
+      <c r="AF226" s="13"/>
+    </row>
+    <row r="227" spans="1:32">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -17663,10 +17896,11 @@
       <c r="AA227" s="14"/>
       <c r="AB227" s="14"/>
       <c r="AC227" s="14"/>
-      <c r="AD227" s="13"/>
+      <c r="AD227" s="14"/>
       <c r="AE227" s="13"/>
-    </row>
-    <row r="228" spans="1:31">
+      <c r="AF227" s="13"/>
+    </row>
+    <row r="228" spans="1:32">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -17696,10 +17930,11 @@
       <c r="AA228" s="14"/>
       <c r="AB228" s="14"/>
       <c r="AC228" s="14"/>
-      <c r="AD228" s="13"/>
+      <c r="AD228" s="14"/>
       <c r="AE228" s="13"/>
-    </row>
-    <row r="229" spans="1:31">
+      <c r="AF228" s="13"/>
+    </row>
+    <row r="229" spans="1:32">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -17729,10 +17964,11 @@
       <c r="AA229" s="14"/>
       <c r="AB229" s="14"/>
       <c r="AC229" s="14"/>
-      <c r="AD229" s="13"/>
+      <c r="AD229" s="14"/>
       <c r="AE229" s="13"/>
-    </row>
-    <row r="230" spans="1:31">
+      <c r="AF229" s="13"/>
+    </row>
+    <row r="230" spans="1:32">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -17762,10 +17998,11 @@
       <c r="AA230" s="14"/>
       <c r="AB230" s="14"/>
       <c r="AC230" s="14"/>
-      <c r="AD230" s="13"/>
+      <c r="AD230" s="14"/>
       <c r="AE230" s="13"/>
-    </row>
-    <row r="231" spans="1:31">
+      <c r="AF230" s="13"/>
+    </row>
+    <row r="231" spans="1:32">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -17795,10 +18032,11 @@
       <c r="AA231" s="14"/>
       <c r="AB231" s="14"/>
       <c r="AC231" s="14"/>
-      <c r="AD231" s="13"/>
+      <c r="AD231" s="14"/>
       <c r="AE231" s="13"/>
-    </row>
-    <row r="232" spans="1:31">
+      <c r="AF231" s="13"/>
+    </row>
+    <row r="232" spans="1:32">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -17828,10 +18066,11 @@
       <c r="AA232" s="14"/>
       <c r="AB232" s="14"/>
       <c r="AC232" s="14"/>
-      <c r="AD232" s="13"/>
+      <c r="AD232" s="14"/>
       <c r="AE232" s="13"/>
-    </row>
-    <row r="233" spans="1:31">
+      <c r="AF232" s="13"/>
+    </row>
+    <row r="233" spans="1:32">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -17861,10 +18100,11 @@
       <c r="AA233" s="14"/>
       <c r="AB233" s="14"/>
       <c r="AC233" s="14"/>
-      <c r="AD233" s="13"/>
+      <c r="AD233" s="14"/>
       <c r="AE233" s="13"/>
-    </row>
-    <row r="234" spans="1:31">
+      <c r="AF233" s="13"/>
+    </row>
+    <row r="234" spans="1:32">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -17894,10 +18134,11 @@
       <c r="AA234" s="14"/>
       <c r="AB234" s="14"/>
       <c r="AC234" s="14"/>
-      <c r="AD234" s="13"/>
+      <c r="AD234" s="14"/>
       <c r="AE234" s="13"/>
-    </row>
-    <row r="235" spans="1:31">
+      <c r="AF234" s="13"/>
+    </row>
+    <row r="235" spans="1:32">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -17927,10 +18168,11 @@
       <c r="AA235" s="14"/>
       <c r="AB235" s="14"/>
       <c r="AC235" s="14"/>
-      <c r="AD235" s="13"/>
+      <c r="AD235" s="14"/>
       <c r="AE235" s="13"/>
-    </row>
-    <row r="236" spans="1:31">
+      <c r="AF235" s="13"/>
+    </row>
+    <row r="236" spans="1:32">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -17960,10 +18202,11 @@
       <c r="AA236" s="14"/>
       <c r="AB236" s="14"/>
       <c r="AC236" s="14"/>
-      <c r="AD236" s="13"/>
+      <c r="AD236" s="14"/>
       <c r="AE236" s="13"/>
-    </row>
-    <row r="237" spans="1:31">
+      <c r="AF236" s="13"/>
+    </row>
+    <row r="237" spans="1:32">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -17993,10 +18236,11 @@
       <c r="AA237" s="14"/>
       <c r="AB237" s="14"/>
       <c r="AC237" s="14"/>
-      <c r="AD237" s="13"/>
+      <c r="AD237" s="14"/>
       <c r="AE237" s="13"/>
-    </row>
-    <row r="238" spans="1:31">
+      <c r="AF237" s="13"/>
+    </row>
+    <row r="238" spans="1:32">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -18026,10 +18270,11 @@
       <c r="AA238" s="14"/>
       <c r="AB238" s="14"/>
       <c r="AC238" s="14"/>
-      <c r="AD238" s="13"/>
+      <c r="AD238" s="14"/>
       <c r="AE238" s="13"/>
-    </row>
-    <row r="239" spans="1:31">
+      <c r="AF238" s="13"/>
+    </row>
+    <row r="239" spans="1:32">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -18059,10 +18304,11 @@
       <c r="AA239" s="14"/>
       <c r="AB239" s="14"/>
       <c r="AC239" s="14"/>
-      <c r="AD239" s="13"/>
+      <c r="AD239" s="14"/>
       <c r="AE239" s="13"/>
-    </row>
-    <row r="240" spans="1:31">
+      <c r="AF239" s="13"/>
+    </row>
+    <row r="240" spans="1:32">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -18092,10 +18338,11 @@
       <c r="AA240" s="14"/>
       <c r="AB240" s="14"/>
       <c r="AC240" s="14"/>
-      <c r="AD240" s="13"/>
+      <c r="AD240" s="14"/>
       <c r="AE240" s="13"/>
-    </row>
-    <row r="241" spans="1:31">
+      <c r="AF240" s="13"/>
+    </row>
+    <row r="241" spans="1:32">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -18125,10 +18372,11 @@
       <c r="AA241" s="14"/>
       <c r="AB241" s="14"/>
       <c r="AC241" s="14"/>
-      <c r="AD241" s="13"/>
+      <c r="AD241" s="14"/>
       <c r="AE241" s="13"/>
-    </row>
-    <row r="242" spans="1:31">
+      <c r="AF241" s="13"/>
+    </row>
+    <row r="242" spans="1:32">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -18158,10 +18406,11 @@
       <c r="AA242" s="14"/>
       <c r="AB242" s="14"/>
       <c r="AC242" s="14"/>
-      <c r="AD242" s="13"/>
+      <c r="AD242" s="14"/>
       <c r="AE242" s="13"/>
-    </row>
-    <row r="243" spans="1:31">
+      <c r="AF242" s="13"/>
+    </row>
+    <row r="243" spans="1:32">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -18191,10 +18440,11 @@
       <c r="AA243" s="14"/>
       <c r="AB243" s="14"/>
       <c r="AC243" s="14"/>
-      <c r="AD243" s="13"/>
+      <c r="AD243" s="14"/>
       <c r="AE243" s="13"/>
-    </row>
-    <row r="244" spans="1:31">
+      <c r="AF243" s="13"/>
+    </row>
+    <row r="244" spans="1:32">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -18224,10 +18474,11 @@
       <c r="AA244" s="14"/>
       <c r="AB244" s="14"/>
       <c r="AC244" s="14"/>
-      <c r="AD244" s="13"/>
+      <c r="AD244" s="14"/>
       <c r="AE244" s="13"/>
-    </row>
-    <row r="245" spans="1:31">
+      <c r="AF244" s="13"/>
+    </row>
+    <row r="245" spans="1:32">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -18257,10 +18508,11 @@
       <c r="AA245" s="14"/>
       <c r="AB245" s="14"/>
       <c r="AC245" s="14"/>
-      <c r="AD245" s="13"/>
+      <c r="AD245" s="14"/>
       <c r="AE245" s="13"/>
-    </row>
-    <row r="246" spans="1:31">
+      <c r="AF245" s="13"/>
+    </row>
+    <row r="246" spans="1:32">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -18290,10 +18542,11 @@
       <c r="AA246" s="14"/>
       <c r="AB246" s="14"/>
       <c r="AC246" s="14"/>
-      <c r="AD246" s="13"/>
+      <c r="AD246" s="14"/>
       <c r="AE246" s="13"/>
-    </row>
-    <row r="247" spans="1:31">
+      <c r="AF246" s="13"/>
+    </row>
+    <row r="247" spans="1:32">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -18323,10 +18576,11 @@
       <c r="AA247" s="14"/>
       <c r="AB247" s="14"/>
       <c r="AC247" s="14"/>
-      <c r="AD247" s="13"/>
+      <c r="AD247" s="14"/>
       <c r="AE247" s="13"/>
-    </row>
-    <row r="248" spans="1:31">
+      <c r="AF247" s="13"/>
+    </row>
+    <row r="248" spans="1:32">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -18356,10 +18610,11 @@
       <c r="AA248" s="14"/>
       <c r="AB248" s="14"/>
       <c r="AC248" s="14"/>
-      <c r="AD248" s="13"/>
+      <c r="AD248" s="14"/>
       <c r="AE248" s="13"/>
-    </row>
-    <row r="249" spans="1:31">
+      <c r="AF248" s="13"/>
+    </row>
+    <row r="249" spans="1:32">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -18389,10 +18644,11 @@
       <c r="AA249" s="14"/>
       <c r="AB249" s="14"/>
       <c r="AC249" s="14"/>
-      <c r="AD249" s="13"/>
+      <c r="AD249" s="14"/>
       <c r="AE249" s="13"/>
-    </row>
-    <row r="250" spans="1:31">
+      <c r="AF249" s="13"/>
+    </row>
+    <row r="250" spans="1:32">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -18422,10 +18678,11 @@
       <c r="AA250" s="14"/>
       <c r="AB250" s="14"/>
       <c r="AC250" s="14"/>
-      <c r="AD250" s="13"/>
+      <c r="AD250" s="14"/>
       <c r="AE250" s="13"/>
-    </row>
-    <row r="251" spans="1:31">
+      <c r="AF250" s="13"/>
+    </row>
+    <row r="251" spans="1:32">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -18455,10 +18712,11 @@
       <c r="AA251" s="14"/>
       <c r="AB251" s="14"/>
       <c r="AC251" s="14"/>
-      <c r="AD251" s="13"/>
+      <c r="AD251" s="14"/>
       <c r="AE251" s="13"/>
-    </row>
-    <row r="252" spans="1:31">
+      <c r="AF251" s="13"/>
+    </row>
+    <row r="252" spans="1:32">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -18488,10 +18746,11 @@
       <c r="AA252" s="14"/>
       <c r="AB252" s="14"/>
       <c r="AC252" s="14"/>
-      <c r="AD252" s="13"/>
+      <c r="AD252" s="14"/>
       <c r="AE252" s="13"/>
-    </row>
-    <row r="253" spans="1:31">
+      <c r="AF252" s="13"/>
+    </row>
+    <row r="253" spans="1:32">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -18521,10 +18780,11 @@
       <c r="AA253" s="14"/>
       <c r="AB253" s="14"/>
       <c r="AC253" s="14"/>
-      <c r="AD253" s="13"/>
+      <c r="AD253" s="14"/>
       <c r="AE253" s="13"/>
-    </row>
-    <row r="254" spans="1:31">
+      <c r="AF253" s="13"/>
+    </row>
+    <row r="254" spans="1:32">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -18554,10 +18814,11 @@
       <c r="AA254" s="14"/>
       <c r="AB254" s="14"/>
       <c r="AC254" s="14"/>
-      <c r="AD254" s="13"/>
+      <c r="AD254" s="14"/>
       <c r="AE254" s="13"/>
-    </row>
-    <row r="255" spans="1:31">
+      <c r="AF254" s="13"/>
+    </row>
+    <row r="255" spans="1:32">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -18587,10 +18848,11 @@
       <c r="AA255" s="14"/>
       <c r="AB255" s="14"/>
       <c r="AC255" s="14"/>
-      <c r="AD255" s="13"/>
+      <c r="AD255" s="14"/>
       <c r="AE255" s="13"/>
-    </row>
-    <row r="256" spans="1:31">
+      <c r="AF255" s="13"/>
+    </row>
+    <row r="256" spans="1:32">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -18620,10 +18882,11 @@
       <c r="AA256" s="14"/>
       <c r="AB256" s="14"/>
       <c r="AC256" s="14"/>
-      <c r="AD256" s="13"/>
+      <c r="AD256" s="14"/>
       <c r="AE256" s="13"/>
-    </row>
-    <row r="257" spans="1:31">
+      <c r="AF256" s="13"/>
+    </row>
+    <row r="257" spans="1:32">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -18653,10 +18916,11 @@
       <c r="AA257" s="14"/>
       <c r="AB257" s="14"/>
       <c r="AC257" s="14"/>
-      <c r="AD257" s="13"/>
+      <c r="AD257" s="14"/>
       <c r="AE257" s="13"/>
-    </row>
-    <row r="258" spans="1:31">
+      <c r="AF257" s="13"/>
+    </row>
+    <row r="258" spans="1:32">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -18686,10 +18950,11 @@
       <c r="AA258" s="14"/>
       <c r="AB258" s="14"/>
       <c r="AC258" s="14"/>
-      <c r="AD258" s="13"/>
+      <c r="AD258" s="14"/>
       <c r="AE258" s="13"/>
-    </row>
-    <row r="259" spans="1:31">
+      <c r="AF258" s="13"/>
+    </row>
+    <row r="259" spans="1:32">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -18719,10 +18984,11 @@
       <c r="AA259" s="14"/>
       <c r="AB259" s="14"/>
       <c r="AC259" s="14"/>
-      <c r="AD259" s="13"/>
+      <c r="AD259" s="14"/>
       <c r="AE259" s="13"/>
-    </row>
-    <row r="260" spans="1:31">
+      <c r="AF259" s="13"/>
+    </row>
+    <row r="260" spans="1:32">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -18752,10 +19018,11 @@
       <c r="AA260" s="14"/>
       <c r="AB260" s="14"/>
       <c r="AC260" s="14"/>
-      <c r="AD260" s="13"/>
+      <c r="AD260" s="14"/>
       <c r="AE260" s="13"/>
-    </row>
-    <row r="261" spans="1:31">
+      <c r="AF260" s="13"/>
+    </row>
+    <row r="261" spans="1:32">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -18785,10 +19052,11 @@
       <c r="AA261" s="14"/>
       <c r="AB261" s="14"/>
       <c r="AC261" s="14"/>
-      <c r="AD261" s="13"/>
+      <c r="AD261" s="14"/>
       <c r="AE261" s="13"/>
-    </row>
-    <row r="262" spans="1:31">
+      <c r="AF261" s="13"/>
+    </row>
+    <row r="262" spans="1:32">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -18818,10 +19086,11 @@
       <c r="AA262" s="14"/>
       <c r="AB262" s="14"/>
       <c r="AC262" s="14"/>
-      <c r="AD262" s="13"/>
+      <c r="AD262" s="14"/>
       <c r="AE262" s="13"/>
-    </row>
-    <row r="263" spans="1:31">
+      <c r="AF262" s="13"/>
+    </row>
+    <row r="263" spans="1:32">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -18851,10 +19120,11 @@
       <c r="AA263" s="14"/>
       <c r="AB263" s="14"/>
       <c r="AC263" s="14"/>
-      <c r="AD263" s="13"/>
+      <c r="AD263" s="14"/>
       <c r="AE263" s="13"/>
-    </row>
-    <row r="264" spans="1:31">
+      <c r="AF263" s="13"/>
+    </row>
+    <row r="264" spans="1:32">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -18884,10 +19154,11 @@
       <c r="AA264" s="14"/>
       <c r="AB264" s="14"/>
       <c r="AC264" s="14"/>
-      <c r="AD264" s="13"/>
+      <c r="AD264" s="14"/>
       <c r="AE264" s="13"/>
-    </row>
-    <row r="265" spans="1:31">
+      <c r="AF264" s="13"/>
+    </row>
+    <row r="265" spans="1:32">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -18917,10 +19188,11 @@
       <c r="AA265" s="14"/>
       <c r="AB265" s="14"/>
       <c r="AC265" s="14"/>
-      <c r="AD265" s="13"/>
+      <c r="AD265" s="14"/>
       <c r="AE265" s="13"/>
-    </row>
-    <row r="266" spans="1:31">
+      <c r="AF265" s="13"/>
+    </row>
+    <row r="266" spans="1:32">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -18950,10 +19222,11 @@
       <c r="AA266" s="14"/>
       <c r="AB266" s="14"/>
       <c r="AC266" s="14"/>
-      <c r="AD266" s="13"/>
+      <c r="AD266" s="14"/>
       <c r="AE266" s="13"/>
-    </row>
-    <row r="267" spans="1:31">
+      <c r="AF266" s="13"/>
+    </row>
+    <row r="267" spans="1:32">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -18983,10 +19256,11 @@
       <c r="AA267" s="14"/>
       <c r="AB267" s="14"/>
       <c r="AC267" s="14"/>
-      <c r="AD267" s="13"/>
+      <c r="AD267" s="14"/>
       <c r="AE267" s="13"/>
-    </row>
-    <row r="268" spans="1:31">
+      <c r="AF267" s="13"/>
+    </row>
+    <row r="268" spans="1:32">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -19016,10 +19290,11 @@
       <c r="AA268" s="14"/>
       <c r="AB268" s="14"/>
       <c r="AC268" s="14"/>
-      <c r="AD268" s="13"/>
+      <c r="AD268" s="14"/>
       <c r="AE268" s="13"/>
-    </row>
-    <row r="269" spans="1:31">
+      <c r="AF268" s="13"/>
+    </row>
+    <row r="269" spans="1:32">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -19049,10 +19324,11 @@
       <c r="AA269" s="14"/>
       <c r="AB269" s="14"/>
       <c r="AC269" s="14"/>
-      <c r="AD269" s="13"/>
+      <c r="AD269" s="14"/>
       <c r="AE269" s="13"/>
-    </row>
-    <row r="270" spans="1:31">
+      <c r="AF269" s="13"/>
+    </row>
+    <row r="270" spans="1:32">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -19082,10 +19358,11 @@
       <c r="AA270" s="14"/>
       <c r="AB270" s="14"/>
       <c r="AC270" s="14"/>
-      <c r="AD270" s="13"/>
+      <c r="AD270" s="14"/>
       <c r="AE270" s="13"/>
-    </row>
-    <row r="271" spans="1:31">
+      <c r="AF270" s="13"/>
+    </row>
+    <row r="271" spans="1:32">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -19115,10 +19392,11 @@
       <c r="AA271" s="14"/>
       <c r="AB271" s="14"/>
       <c r="AC271" s="14"/>
-      <c r="AD271" s="13"/>
+      <c r="AD271" s="14"/>
       <c r="AE271" s="13"/>
-    </row>
-    <row r="272" spans="1:31">
+      <c r="AF271" s="13"/>
+    </row>
+    <row r="272" spans="1:32">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -19148,10 +19426,11 @@
       <c r="AA272" s="14"/>
       <c r="AB272" s="14"/>
       <c r="AC272" s="14"/>
-      <c r="AD272" s="13"/>
+      <c r="AD272" s="14"/>
       <c r="AE272" s="13"/>
-    </row>
-    <row r="273" spans="1:31">
+      <c r="AF272" s="13"/>
+    </row>
+    <row r="273" spans="1:32">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -19181,10 +19460,11 @@
       <c r="AA273" s="14"/>
       <c r="AB273" s="14"/>
       <c r="AC273" s="14"/>
-      <c r="AD273" s="13"/>
+      <c r="AD273" s="14"/>
       <c r="AE273" s="13"/>
-    </row>
-    <row r="274" spans="1:31">
+      <c r="AF273" s="13"/>
+    </row>
+    <row r="274" spans="1:32">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -19214,10 +19494,11 @@
       <c r="AA274" s="14"/>
       <c r="AB274" s="14"/>
       <c r="AC274" s="14"/>
-      <c r="AD274" s="13"/>
+      <c r="AD274" s="14"/>
       <c r="AE274" s="13"/>
-    </row>
-    <row r="275" spans="1:31">
+      <c r="AF274" s="13"/>
+    </row>
+    <row r="275" spans="1:32">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -19247,10 +19528,11 @@
       <c r="AA275" s="14"/>
       <c r="AB275" s="14"/>
       <c r="AC275" s="14"/>
-      <c r="AD275" s="13"/>
+      <c r="AD275" s="14"/>
       <c r="AE275" s="13"/>
-    </row>
-    <row r="276" spans="1:31">
+      <c r="AF275" s="13"/>
+    </row>
+    <row r="276" spans="1:32">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -19280,10 +19562,11 @@
       <c r="AA276" s="14"/>
       <c r="AB276" s="14"/>
       <c r="AC276" s="14"/>
-      <c r="AD276" s="13"/>
+      <c r="AD276" s="14"/>
       <c r="AE276" s="13"/>
-    </row>
-    <row r="277" spans="1:31">
+      <c r="AF276" s="13"/>
+    </row>
+    <row r="277" spans="1:32">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -19313,10 +19596,11 @@
       <c r="AA277" s="14"/>
       <c r="AB277" s="14"/>
       <c r="AC277" s="14"/>
-      <c r="AD277" s="13"/>
+      <c r="AD277" s="14"/>
       <c r="AE277" s="13"/>
-    </row>
-    <row r="278" spans="1:31">
+      <c r="AF277" s="13"/>
+    </row>
+    <row r="278" spans="1:32">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -19346,10 +19630,11 @@
       <c r="AA278" s="14"/>
       <c r="AB278" s="14"/>
       <c r="AC278" s="14"/>
-      <c r="AD278" s="13"/>
+      <c r="AD278" s="14"/>
       <c r="AE278" s="13"/>
-    </row>
-    <row r="279" spans="1:31">
+      <c r="AF278" s="13"/>
+    </row>
+    <row r="279" spans="1:32">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -19379,10 +19664,11 @@
       <c r="AA279" s="14"/>
       <c r="AB279" s="14"/>
       <c r="AC279" s="14"/>
-      <c r="AD279" s="13"/>
+      <c r="AD279" s="14"/>
       <c r="AE279" s="13"/>
-    </row>
-    <row r="280" spans="1:31">
+      <c r="AF279" s="13"/>
+    </row>
+    <row r="280" spans="1:32">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -19412,10 +19698,11 @@
       <c r="AA280" s="14"/>
       <c r="AB280" s="14"/>
       <c r="AC280" s="14"/>
-      <c r="AD280" s="13"/>
+      <c r="AD280" s="14"/>
       <c r="AE280" s="13"/>
-    </row>
-    <row r="281" spans="1:31">
+      <c r="AF280" s="13"/>
+    </row>
+    <row r="281" spans="1:32">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -19445,10 +19732,11 @@
       <c r="AA281" s="14"/>
       <c r="AB281" s="14"/>
       <c r="AC281" s="14"/>
-      <c r="AD281" s="13"/>
+      <c r="AD281" s="14"/>
       <c r="AE281" s="13"/>
-    </row>
-    <row r="282" spans="1:31">
+      <c r="AF281" s="13"/>
+    </row>
+    <row r="282" spans="1:32">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -19478,10 +19766,11 @@
       <c r="AA282" s="14"/>
       <c r="AB282" s="14"/>
       <c r="AC282" s="14"/>
-      <c r="AD282" s="13"/>
+      <c r="AD282" s="14"/>
       <c r="AE282" s="13"/>
-    </row>
-    <row r="283" spans="1:31">
+      <c r="AF282" s="13"/>
+    </row>
+    <row r="283" spans="1:32">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -19511,10 +19800,11 @@
       <c r="AA283" s="14"/>
       <c r="AB283" s="14"/>
       <c r="AC283" s="14"/>
-      <c r="AD283" s="13"/>
+      <c r="AD283" s="14"/>
       <c r="AE283" s="13"/>
-    </row>
-    <row r="284" spans="1:31">
+      <c r="AF283" s="13"/>
+    </row>
+    <row r="284" spans="1:32">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -19544,10 +19834,11 @@
       <c r="AA284" s="14"/>
       <c r="AB284" s="14"/>
       <c r="AC284" s="14"/>
-      <c r="AD284" s="13"/>
+      <c r="AD284" s="14"/>
       <c r="AE284" s="13"/>
-    </row>
-    <row r="285" spans="1:31">
+      <c r="AF284" s="13"/>
+    </row>
+    <row r="285" spans="1:32">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -19577,10 +19868,11 @@
       <c r="AA285" s="14"/>
       <c r="AB285" s="14"/>
       <c r="AC285" s="14"/>
-      <c r="AD285" s="13"/>
+      <c r="AD285" s="14"/>
       <c r="AE285" s="13"/>
-    </row>
-    <row r="286" spans="1:31">
+      <c r="AF285" s="13"/>
+    </row>
+    <row r="286" spans="1:32">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -19610,10 +19902,11 @@
       <c r="AA286" s="14"/>
       <c r="AB286" s="14"/>
       <c r="AC286" s="14"/>
-      <c r="AD286" s="13"/>
+      <c r="AD286" s="14"/>
       <c r="AE286" s="13"/>
-    </row>
-    <row r="287" spans="1:31">
+      <c r="AF286" s="13"/>
+    </row>
+    <row r="287" spans="1:32">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -19643,10 +19936,11 @@
       <c r="AA287" s="14"/>
       <c r="AB287" s="14"/>
       <c r="AC287" s="14"/>
-      <c r="AD287" s="13"/>
+      <c r="AD287" s="14"/>
       <c r="AE287" s="13"/>
-    </row>
-    <row r="288" spans="1:31">
+      <c r="AF287" s="13"/>
+    </row>
+    <row r="288" spans="1:32">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -19676,10 +19970,11 @@
       <c r="AA288" s="14"/>
       <c r="AB288" s="14"/>
       <c r="AC288" s="14"/>
-      <c r="AD288" s="13"/>
+      <c r="AD288" s="14"/>
       <c r="AE288" s="13"/>
-    </row>
-    <row r="289" spans="1:31">
+      <c r="AF288" s="13"/>
+    </row>
+    <row r="289" spans="1:32">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -19709,10 +20004,11 @@
       <c r="AA289" s="14"/>
       <c r="AB289" s="14"/>
       <c r="AC289" s="14"/>
-      <c r="AD289" s="13"/>
+      <c r="AD289" s="14"/>
       <c r="AE289" s="13"/>
-    </row>
-    <row r="290" spans="1:31">
+      <c r="AF289" s="13"/>
+    </row>
+    <row r="290" spans="1:32">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -19742,10 +20038,11 @@
       <c r="AA290" s="14"/>
       <c r="AB290" s="14"/>
       <c r="AC290" s="14"/>
-      <c r="AD290" s="13"/>
+      <c r="AD290" s="14"/>
       <c r="AE290" s="13"/>
-    </row>
-    <row r="291" spans="1:31">
+      <c r="AF290" s="13"/>
+    </row>
+    <row r="291" spans="1:32">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -19775,10 +20072,11 @@
       <c r="AA291" s="14"/>
       <c r="AB291" s="14"/>
       <c r="AC291" s="14"/>
-      <c r="AD291" s="13"/>
+      <c r="AD291" s="14"/>
       <c r="AE291" s="13"/>
-    </row>
-    <row r="292" spans="1:31">
+      <c r="AF291" s="13"/>
+    </row>
+    <row r="292" spans="1:32">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -19808,10 +20106,11 @@
       <c r="AA292" s="14"/>
       <c r="AB292" s="14"/>
       <c r="AC292" s="14"/>
-      <c r="AD292" s="13"/>
+      <c r="AD292" s="14"/>
       <c r="AE292" s="13"/>
-    </row>
-    <row r="293" spans="1:31">
+      <c r="AF292" s="13"/>
+    </row>
+    <row r="293" spans="1:32">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -19841,10 +20140,11 @@
       <c r="AA293" s="14"/>
       <c r="AB293" s="14"/>
       <c r="AC293" s="14"/>
-      <c r="AD293" s="13"/>
+      <c r="AD293" s="14"/>
       <c r="AE293" s="13"/>
-    </row>
-    <row r="294" spans="1:31">
+      <c r="AF293" s="13"/>
+    </row>
+    <row r="294" spans="1:32">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -19874,10 +20174,11 @@
       <c r="AA294" s="14"/>
       <c r="AB294" s="14"/>
       <c r="AC294" s="14"/>
-      <c r="AD294" s="13"/>
+      <c r="AD294" s="14"/>
       <c r="AE294" s="13"/>
-    </row>
-    <row r="295" spans="1:31">
+      <c r="AF294" s="13"/>
+    </row>
+    <row r="295" spans="1:32">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -19907,10 +20208,11 @@
       <c r="AA295" s="14"/>
       <c r="AB295" s="14"/>
       <c r="AC295" s="14"/>
-      <c r="AD295" s="13"/>
+      <c r="AD295" s="14"/>
       <c r="AE295" s="13"/>
-    </row>
-    <row r="296" spans="1:31">
+      <c r="AF295" s="13"/>
+    </row>
+    <row r="296" spans="1:32">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -19940,10 +20242,11 @@
       <c r="AA296" s="14"/>
       <c r="AB296" s="14"/>
       <c r="AC296" s="14"/>
-      <c r="AD296" s="13"/>
+      <c r="AD296" s="14"/>
       <c r="AE296" s="13"/>
-    </row>
-    <row r="297" spans="1:31">
+      <c r="AF296" s="13"/>
+    </row>
+    <row r="297" spans="1:32">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -19973,10 +20276,11 @@
       <c r="AA297" s="14"/>
       <c r="AB297" s="14"/>
       <c r="AC297" s="14"/>
-      <c r="AD297" s="13"/>
+      <c r="AD297" s="14"/>
       <c r="AE297" s="13"/>
-    </row>
-    <row r="298" spans="1:31">
+      <c r="AF297" s="13"/>
+    </row>
+    <row r="298" spans="1:32">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -20006,10 +20310,11 @@
       <c r="AA298" s="14"/>
       <c r="AB298" s="14"/>
       <c r="AC298" s="14"/>
-      <c r="AD298" s="13"/>
+      <c r="AD298" s="14"/>
       <c r="AE298" s="13"/>
-    </row>
-    <row r="299" spans="1:31">
+      <c r="AF298" s="13"/>
+    </row>
+    <row r="299" spans="1:32">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -20039,10 +20344,11 @@
       <c r="AA299" s="14"/>
       <c r="AB299" s="14"/>
       <c r="AC299" s="14"/>
-      <c r="AD299" s="13"/>
+      <c r="AD299" s="14"/>
       <c r="AE299" s="13"/>
-    </row>
-    <row r="300" spans="1:31">
+      <c r="AF299" s="13"/>
+    </row>
+    <row r="300" spans="1:32">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -20072,10 +20378,11 @@
       <c r="AA300" s="14"/>
       <c r="AB300" s="14"/>
       <c r="AC300" s="14"/>
-      <c r="AD300" s="13"/>
+      <c r="AD300" s="14"/>
       <c r="AE300" s="13"/>
-    </row>
-    <row r="301" spans="1:31">
+      <c r="AF300" s="13"/>
+    </row>
+    <row r="301" spans="1:32">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -20105,10 +20412,11 @@
       <c r="AA301" s="14"/>
       <c r="AB301" s="14"/>
       <c r="AC301" s="14"/>
-      <c r="AD301" s="13"/>
+      <c r="AD301" s="14"/>
       <c r="AE301" s="13"/>
-    </row>
-    <row r="302" spans="1:31">
+      <c r="AF301" s="13"/>
+    </row>
+    <row r="302" spans="1:32">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -20138,10 +20446,11 @@
       <c r="AA302" s="14"/>
       <c r="AB302" s="14"/>
       <c r="AC302" s="14"/>
-      <c r="AD302" s="13"/>
+      <c r="AD302" s="14"/>
       <c r="AE302" s="13"/>
-    </row>
-    <row r="303" spans="1:31">
+      <c r="AF302" s="13"/>
+    </row>
+    <row r="303" spans="1:32">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -20171,10 +20480,11 @@
       <c r="AA303" s="14"/>
       <c r="AB303" s="14"/>
       <c r="AC303" s="14"/>
-      <c r="AD303" s="13"/>
+      <c r="AD303" s="14"/>
       <c r="AE303" s="13"/>
-    </row>
-    <row r="304" spans="1:31">
+      <c r="AF303" s="13"/>
+    </row>
+    <row r="304" spans="1:32">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -20204,10 +20514,11 @@
       <c r="AA304" s="14"/>
       <c r="AB304" s="14"/>
       <c r="AC304" s="14"/>
-      <c r="AD304" s="13"/>
+      <c r="AD304" s="14"/>
       <c r="AE304" s="13"/>
-    </row>
-    <row r="305" spans="1:31">
+      <c r="AF304" s="13"/>
+    </row>
+    <row r="305" spans="1:32">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -20237,10 +20548,11 @@
       <c r="AA305" s="14"/>
       <c r="AB305" s="14"/>
       <c r="AC305" s="14"/>
-      <c r="AD305" s="13"/>
+      <c r="AD305" s="14"/>
       <c r="AE305" s="13"/>
-    </row>
-    <row r="306" spans="1:31">
+      <c r="AF305" s="13"/>
+    </row>
+    <row r="306" spans="1:32">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -20270,10 +20582,11 @@
       <c r="AA306" s="14"/>
       <c r="AB306" s="14"/>
       <c r="AC306" s="14"/>
-      <c r="AD306" s="13"/>
+      <c r="AD306" s="14"/>
       <c r="AE306" s="13"/>
-    </row>
-    <row r="307" spans="1:31">
+      <c r="AF306" s="13"/>
+    </row>
+    <row r="307" spans="1:32">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -20303,10 +20616,11 @@
       <c r="AA307" s="14"/>
       <c r="AB307" s="14"/>
       <c r="AC307" s="14"/>
-      <c r="AD307" s="13"/>
+      <c r="AD307" s="14"/>
       <c r="AE307" s="13"/>
-    </row>
-    <row r="308" spans="1:31">
+      <c r="AF307" s="13"/>
+    </row>
+    <row r="308" spans="1:32">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -20336,10 +20650,11 @@
       <c r="AA308" s="14"/>
       <c r="AB308" s="14"/>
       <c r="AC308" s="14"/>
-      <c r="AD308" s="13"/>
+      <c r="AD308" s="14"/>
       <c r="AE308" s="13"/>
-    </row>
-    <row r="309" spans="1:31">
+      <c r="AF308" s="13"/>
+    </row>
+    <row r="309" spans="1:32">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -20369,10 +20684,11 @@
       <c r="AA309" s="14"/>
       <c r="AB309" s="14"/>
       <c r="AC309" s="14"/>
-      <c r="AD309" s="13"/>
+      <c r="AD309" s="14"/>
       <c r="AE309" s="13"/>
-    </row>
-    <row r="310" spans="1:31">
+      <c r="AF309" s="13"/>
+    </row>
+    <row r="310" spans="1:32">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -20402,10 +20718,11 @@
       <c r="AA310" s="14"/>
       <c r="AB310" s="14"/>
       <c r="AC310" s="14"/>
-      <c r="AD310" s="13"/>
+      <c r="AD310" s="14"/>
       <c r="AE310" s="13"/>
-    </row>
-    <row r="311" spans="1:31">
+      <c r="AF310" s="13"/>
+    </row>
+    <row r="311" spans="1:32">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -20435,10 +20752,11 @@
       <c r="AA311" s="14"/>
       <c r="AB311" s="14"/>
       <c r="AC311" s="14"/>
-      <c r="AD311" s="13"/>
+      <c r="AD311" s="14"/>
       <c r="AE311" s="13"/>
-    </row>
-    <row r="312" spans="1:31">
+      <c r="AF311" s="13"/>
+    </row>
+    <row r="312" spans="1:32">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -20468,10 +20786,11 @@
       <c r="AA312" s="14"/>
       <c r="AB312" s="14"/>
       <c r="AC312" s="14"/>
-      <c r="AD312" s="13"/>
+      <c r="AD312" s="14"/>
       <c r="AE312" s="13"/>
-    </row>
-    <row r="313" spans="1:31">
+      <c r="AF312" s="13"/>
+    </row>
+    <row r="313" spans="1:32">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -20501,10 +20820,11 @@
       <c r="AA313" s="14"/>
       <c r="AB313" s="14"/>
       <c r="AC313" s="14"/>
-      <c r="AD313" s="13"/>
+      <c r="AD313" s="14"/>
       <c r="AE313" s="13"/>
-    </row>
-    <row r="314" spans="1:31">
+      <c r="AF313" s="13"/>
+    </row>
+    <row r="314" spans="1:32">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -20534,10 +20854,11 @@
       <c r="AA314" s="14"/>
       <c r="AB314" s="14"/>
       <c r="AC314" s="14"/>
-      <c r="AD314" s="13"/>
+      <c r="AD314" s="14"/>
       <c r="AE314" s="13"/>
-    </row>
-    <row r="315" spans="1:31">
+      <c r="AF314" s="13"/>
+    </row>
+    <row r="315" spans="1:32">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -20567,10 +20888,11 @@
       <c r="AA315" s="14"/>
       <c r="AB315" s="14"/>
       <c r="AC315" s="14"/>
-      <c r="AD315" s="13"/>
+      <c r="AD315" s="14"/>
       <c r="AE315" s="13"/>
-    </row>
-    <row r="316" spans="1:31">
+      <c r="AF315" s="13"/>
+    </row>
+    <row r="316" spans="1:32">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -20600,10 +20922,11 @@
       <c r="AA316" s="14"/>
       <c r="AB316" s="14"/>
       <c r="AC316" s="14"/>
-      <c r="AD316" s="13"/>
+      <c r="AD316" s="14"/>
       <c r="AE316" s="13"/>
-    </row>
-    <row r="317" spans="1:31">
+      <c r="AF316" s="13"/>
+    </row>
+    <row r="317" spans="1:32">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -20633,10 +20956,11 @@
       <c r="AA317" s="14"/>
       <c r="AB317" s="14"/>
       <c r="AC317" s="14"/>
-      <c r="AD317" s="13"/>
+      <c r="AD317" s="14"/>
       <c r="AE317" s="13"/>
-    </row>
-    <row r="318" spans="1:31">
+      <c r="AF317" s="13"/>
+    </row>
+    <row r="318" spans="1:32">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -20666,10 +20990,11 @@
       <c r="AA318" s="14"/>
       <c r="AB318" s="14"/>
       <c r="AC318" s="14"/>
-      <c r="AD318" s="13"/>
+      <c r="AD318" s="14"/>
       <c r="AE318" s="13"/>
-    </row>
-    <row r="319" spans="1:31">
+      <c r="AF318" s="13"/>
+    </row>
+    <row r="319" spans="1:32">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -20699,10 +21024,11 @@
       <c r="AA319" s="14"/>
       <c r="AB319" s="14"/>
       <c r="AC319" s="14"/>
-      <c r="AD319" s="13"/>
+      <c r="AD319" s="14"/>
       <c r="AE319" s="13"/>
-    </row>
-    <row r="320" spans="1:31">
+      <c r="AF319" s="13"/>
+    </row>
+    <row r="320" spans="1:32">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -20732,10 +21058,11 @@
       <c r="AA320" s="14"/>
       <c r="AB320" s="14"/>
       <c r="AC320" s="14"/>
-      <c r="AD320" s="13"/>
+      <c r="AD320" s="14"/>
       <c r="AE320" s="13"/>
-    </row>
-    <row r="321" spans="1:31">
+      <c r="AF320" s="13"/>
+    </row>
+    <row r="321" spans="1:32">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -20765,10 +21092,11 @@
       <c r="AA321" s="14"/>
       <c r="AB321" s="14"/>
       <c r="AC321" s="14"/>
-      <c r="AD321" s="13"/>
+      <c r="AD321" s="14"/>
       <c r="AE321" s="13"/>
-    </row>
-    <row r="322" spans="1:31">
+      <c r="AF321" s="13"/>
+    </row>
+    <row r="322" spans="1:32">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -20798,10 +21126,11 @@
       <c r="AA322" s="14"/>
       <c r="AB322" s="14"/>
       <c r="AC322" s="14"/>
-      <c r="AD322" s="13"/>
+      <c r="AD322" s="14"/>
       <c r="AE322" s="13"/>
-    </row>
-    <row r="323" spans="1:31">
+      <c r="AF322" s="13"/>
+    </row>
+    <row r="323" spans="1:32">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -20831,10 +21160,11 @@
       <c r="AA323" s="14"/>
       <c r="AB323" s="14"/>
       <c r="AC323" s="14"/>
-      <c r="AD323" s="13"/>
+      <c r="AD323" s="14"/>
       <c r="AE323" s="13"/>
-    </row>
-    <row r="324" spans="1:31">
+      <c r="AF323" s="13"/>
+    </row>
+    <row r="324" spans="1:32">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -20864,10 +21194,11 @@
       <c r="AA324" s="14"/>
       <c r="AB324" s="14"/>
       <c r="AC324" s="14"/>
-      <c r="AD324" s="13"/>
+      <c r="AD324" s="14"/>
       <c r="AE324" s="13"/>
-    </row>
-    <row r="325" spans="1:31">
+      <c r="AF324" s="13"/>
+    </row>
+    <row r="325" spans="1:32">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -20897,10 +21228,11 @@
       <c r="AA325" s="14"/>
       <c r="AB325" s="14"/>
       <c r="AC325" s="14"/>
-      <c r="AD325" s="13"/>
+      <c r="AD325" s="14"/>
       <c r="AE325" s="13"/>
-    </row>
-    <row r="326" spans="1:31">
+      <c r="AF325" s="13"/>
+    </row>
+    <row r="326" spans="1:32">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -20930,10 +21262,11 @@
       <c r="AA326" s="14"/>
       <c r="AB326" s="14"/>
       <c r="AC326" s="14"/>
-      <c r="AD326" s="13"/>
+      <c r="AD326" s="14"/>
       <c r="AE326" s="13"/>
-    </row>
-    <row r="327" spans="1:31">
+      <c r="AF326" s="13"/>
+    </row>
+    <row r="327" spans="1:32">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -20963,10 +21296,11 @@
       <c r="AA327" s="14"/>
       <c r="AB327" s="14"/>
       <c r="AC327" s="14"/>
-      <c r="AD327" s="13"/>
+      <c r="AD327" s="14"/>
       <c r="AE327" s="13"/>
-    </row>
-    <row r="328" spans="1:31">
+      <c r="AF327" s="13"/>
+    </row>
+    <row r="328" spans="1:32">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -20996,10 +21330,11 @@
       <c r="AA328" s="14"/>
       <c r="AB328" s="14"/>
       <c r="AC328" s="14"/>
-      <c r="AD328" s="13"/>
+      <c r="AD328" s="14"/>
       <c r="AE328" s="13"/>
-    </row>
-    <row r="329" spans="1:31">
+      <c r="AF328" s="13"/>
+    </row>
+    <row r="329" spans="1:32">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -21029,10 +21364,11 @@
       <c r="AA329" s="14"/>
       <c r="AB329" s="14"/>
       <c r="AC329" s="14"/>
-      <c r="AD329" s="13"/>
+      <c r="AD329" s="14"/>
       <c r="AE329" s="13"/>
-    </row>
-    <row r="330" spans="1:31">
+      <c r="AF329" s="13"/>
+    </row>
+    <row r="330" spans="1:32">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -21062,10 +21398,11 @@
       <c r="AA330" s="14"/>
       <c r="AB330" s="14"/>
       <c r="AC330" s="14"/>
-      <c r="AD330" s="13"/>
+      <c r="AD330" s="14"/>
       <c r="AE330" s="13"/>
-    </row>
-    <row r="331" spans="1:31">
+      <c r="AF330" s="13"/>
+    </row>
+    <row r="331" spans="1:32">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -21095,10 +21432,11 @@
       <c r="AA331" s="14"/>
       <c r="AB331" s="14"/>
       <c r="AC331" s="14"/>
-      <c r="AD331" s="13"/>
+      <c r="AD331" s="14"/>
       <c r="AE331" s="13"/>
-    </row>
-    <row r="332" spans="1:31">
+      <c r="AF331" s="13"/>
+    </row>
+    <row r="332" spans="1:32">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -21128,10 +21466,11 @@
       <c r="AA332" s="14"/>
       <c r="AB332" s="14"/>
       <c r="AC332" s="14"/>
-      <c r="AD332" s="13"/>
+      <c r="AD332" s="14"/>
       <c r="AE332" s="13"/>
-    </row>
-    <row r="333" spans="1:31">
+      <c r="AF332" s="13"/>
+    </row>
+    <row r="333" spans="1:32">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -21161,10 +21500,11 @@
       <c r="AA333" s="14"/>
       <c r="AB333" s="14"/>
       <c r="AC333" s="14"/>
-      <c r="AD333" s="13"/>
+      <c r="AD333" s="14"/>
       <c r="AE333" s="13"/>
-    </row>
-    <row r="334" spans="1:31">
+      <c r="AF333" s="13"/>
+    </row>
+    <row r="334" spans="1:32">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -21194,10 +21534,11 @@
       <c r="AA334" s="14"/>
       <c r="AB334" s="14"/>
       <c r="AC334" s="14"/>
-      <c r="AD334" s="13"/>
+      <c r="AD334" s="14"/>
       <c r="AE334" s="13"/>
-    </row>
-    <row r="335" spans="1:31">
+      <c r="AF334" s="13"/>
+    </row>
+    <row r="335" spans="1:32">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -21227,10 +21568,11 @@
       <c r="AA335" s="14"/>
       <c r="AB335" s="14"/>
       <c r="AC335" s="14"/>
-      <c r="AD335" s="13"/>
+      <c r="AD335" s="14"/>
       <c r="AE335" s="13"/>
-    </row>
-    <row r="336" spans="1:31">
+      <c r="AF335" s="13"/>
+    </row>
+    <row r="336" spans="1:32">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -21260,10 +21602,11 @@
       <c r="AA336" s="14"/>
       <c r="AB336" s="14"/>
       <c r="AC336" s="14"/>
-      <c r="AD336" s="13"/>
+      <c r="AD336" s="14"/>
       <c r="AE336" s="13"/>
-    </row>
-    <row r="337" spans="1:31">
+      <c r="AF336" s="13"/>
+    </row>
+    <row r="337" spans="1:32">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -21293,10 +21636,11 @@
       <c r="AA337" s="14"/>
       <c r="AB337" s="14"/>
       <c r="AC337" s="14"/>
-      <c r="AD337" s="13"/>
+      <c r="AD337" s="14"/>
       <c r="AE337" s="13"/>
-    </row>
-    <row r="338" spans="1:31">
+      <c r="AF337" s="13"/>
+    </row>
+    <row r="338" spans="1:32">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -21326,10 +21670,11 @@
       <c r="AA338" s="14"/>
       <c r="AB338" s="14"/>
       <c r="AC338" s="14"/>
-      <c r="AD338" s="13"/>
+      <c r="AD338" s="14"/>
       <c r="AE338" s="13"/>
-    </row>
-    <row r="339" spans="1:31">
+      <c r="AF338" s="13"/>
+    </row>
+    <row r="339" spans="1:32">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -21359,10 +21704,11 @@
       <c r="AA339" s="14"/>
       <c r="AB339" s="14"/>
       <c r="AC339" s="14"/>
-      <c r="AD339" s="13"/>
+      <c r="AD339" s="14"/>
       <c r="AE339" s="13"/>
-    </row>
-    <row r="340" spans="1:31">
+      <c r="AF339" s="13"/>
+    </row>
+    <row r="340" spans="1:32">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -21392,10 +21738,11 @@
       <c r="AA340" s="14"/>
       <c r="AB340" s="14"/>
       <c r="AC340" s="14"/>
-      <c r="AD340" s="13"/>
+      <c r="AD340" s="14"/>
       <c r="AE340" s="13"/>
-    </row>
-    <row r="341" spans="1:31">
+      <c r="AF340" s="13"/>
+    </row>
+    <row r="341" spans="1:32">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -21425,10 +21772,11 @@
       <c r="AA341" s="14"/>
       <c r="AB341" s="14"/>
       <c r="AC341" s="14"/>
-      <c r="AD341" s="13"/>
+      <c r="AD341" s="14"/>
       <c r="AE341" s="13"/>
-    </row>
-    <row r="342" spans="1:31">
+      <c r="AF341" s="13"/>
+    </row>
+    <row r="342" spans="1:32">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -21458,10 +21806,11 @@
       <c r="AA342" s="14"/>
       <c r="AB342" s="14"/>
       <c r="AC342" s="14"/>
-      <c r="AD342" s="13"/>
+      <c r="AD342" s="14"/>
       <c r="AE342" s="13"/>
-    </row>
-    <row r="343" spans="1:31">
+      <c r="AF342" s="13"/>
+    </row>
+    <row r="343" spans="1:32">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -21491,10 +21840,11 @@
       <c r="AA343" s="14"/>
       <c r="AB343" s="14"/>
       <c r="AC343" s="14"/>
-      <c r="AD343" s="13"/>
+      <c r="AD343" s="14"/>
       <c r="AE343" s="13"/>
-    </row>
-    <row r="344" spans="1:31">
+      <c r="AF343" s="13"/>
+    </row>
+    <row r="344" spans="1:32">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -21524,10 +21874,11 @@
       <c r="AA344" s="14"/>
       <c r="AB344" s="14"/>
       <c r="AC344" s="14"/>
-      <c r="AD344" s="13"/>
+      <c r="AD344" s="14"/>
       <c r="AE344" s="13"/>
-    </row>
-    <row r="345" spans="1:31">
+      <c r="AF344" s="13"/>
+    </row>
+    <row r="345" spans="1:32">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -21557,10 +21908,11 @@
       <c r="AA345" s="14"/>
       <c r="AB345" s="14"/>
       <c r="AC345" s="14"/>
-      <c r="AD345" s="13"/>
+      <c r="AD345" s="14"/>
       <c r="AE345" s="13"/>
-    </row>
-    <row r="346" spans="1:31">
+      <c r="AF345" s="13"/>
+    </row>
+    <row r="346" spans="1:32">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -21590,10 +21942,11 @@
       <c r="AA346" s="14"/>
       <c r="AB346" s="14"/>
       <c r="AC346" s="14"/>
-      <c r="AD346" s="13"/>
+      <c r="AD346" s="14"/>
       <c r="AE346" s="13"/>
-    </row>
-    <row r="347" spans="1:31">
+      <c r="AF346" s="13"/>
+    </row>
+    <row r="347" spans="1:32">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -21623,10 +21976,11 @@
       <c r="AA347" s="14"/>
       <c r="AB347" s="14"/>
       <c r="AC347" s="14"/>
-      <c r="AD347" s="13"/>
+      <c r="AD347" s="14"/>
       <c r="AE347" s="13"/>
-    </row>
-    <row r="348" spans="1:31">
+      <c r="AF347" s="13"/>
+    </row>
+    <row r="348" spans="1:32">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -21656,10 +22010,11 @@
       <c r="AA348" s="14"/>
       <c r="AB348" s="14"/>
       <c r="AC348" s="14"/>
-      <c r="AD348" s="13"/>
+      <c r="AD348" s="14"/>
       <c r="AE348" s="13"/>
-    </row>
-    <row r="349" spans="1:31">
+      <c r="AF348" s="13"/>
+    </row>
+    <row r="349" spans="1:32">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -21689,10 +22044,11 @@
       <c r="AA349" s="14"/>
       <c r="AB349" s="14"/>
       <c r="AC349" s="14"/>
-      <c r="AD349" s="13"/>
+      <c r="AD349" s="14"/>
       <c r="AE349" s="13"/>
-    </row>
-    <row r="350" spans="1:31">
+      <c r="AF349" s="13"/>
+    </row>
+    <row r="350" spans="1:32">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -21722,10 +22078,11 @@
       <c r="AA350" s="14"/>
       <c r="AB350" s="14"/>
       <c r="AC350" s="14"/>
-      <c r="AD350" s="13"/>
+      <c r="AD350" s="14"/>
       <c r="AE350" s="13"/>
-    </row>
-    <row r="351" spans="1:31">
+      <c r="AF350" s="13"/>
+    </row>
+    <row r="351" spans="1:32">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -21755,10 +22112,11 @@
       <c r="AA351" s="14"/>
       <c r="AB351" s="14"/>
       <c r="AC351" s="14"/>
-      <c r="AD351" s="13"/>
+      <c r="AD351" s="14"/>
       <c r="AE351" s="13"/>
-    </row>
-    <row r="352" spans="1:31">
+      <c r="AF351" s="13"/>
+    </row>
+    <row r="352" spans="1:32">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -21788,10 +22146,11 @@
       <c r="AA352" s="14"/>
       <c r="AB352" s="14"/>
       <c r="AC352" s="14"/>
-      <c r="AD352" s="13"/>
+      <c r="AD352" s="14"/>
       <c r="AE352" s="13"/>
-    </row>
-    <row r="353" spans="1:31">
+      <c r="AF352" s="13"/>
+    </row>
+    <row r="353" spans="1:32">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -21821,10 +22180,11 @@
       <c r="AA353" s="14"/>
       <c r="AB353" s="14"/>
       <c r="AC353" s="14"/>
-      <c r="AD353" s="13"/>
+      <c r="AD353" s="14"/>
       <c r="AE353" s="13"/>
-    </row>
-    <row r="354" spans="1:31">
+      <c r="AF353" s="13"/>
+    </row>
+    <row r="354" spans="1:32">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -21854,10 +22214,11 @@
       <c r="AA354" s="14"/>
       <c r="AB354" s="14"/>
       <c r="AC354" s="14"/>
-      <c r="AD354" s="13"/>
+      <c r="AD354" s="14"/>
       <c r="AE354" s="13"/>
-    </row>
-    <row r="355" spans="1:31">
+      <c r="AF354" s="13"/>
+    </row>
+    <row r="355" spans="1:32">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -21887,10 +22248,11 @@
       <c r="AA355" s="14"/>
       <c r="AB355" s="14"/>
       <c r="AC355" s="14"/>
-      <c r="AD355" s="13"/>
+      <c r="AD355" s="14"/>
       <c r="AE355" s="13"/>
-    </row>
-    <row r="356" spans="1:31">
+      <c r="AF355" s="13"/>
+    </row>
+    <row r="356" spans="1:32">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -21920,10 +22282,11 @@
       <c r="AA356" s="14"/>
       <c r="AB356" s="14"/>
       <c r="AC356" s="14"/>
-      <c r="AD356" s="13"/>
+      <c r="AD356" s="14"/>
       <c r="AE356" s="13"/>
-    </row>
-    <row r="357" spans="1:31">
+      <c r="AF356" s="13"/>
+    </row>
+    <row r="357" spans="1:32">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -21953,10 +22316,11 @@
       <c r="AA357" s="14"/>
       <c r="AB357" s="14"/>
       <c r="AC357" s="14"/>
-      <c r="AD357" s="13"/>
+      <c r="AD357" s="14"/>
       <c r="AE357" s="13"/>
-    </row>
-    <row r="358" spans="1:31">
+      <c r="AF357" s="13"/>
+    </row>
+    <row r="358" spans="1:32">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -21986,10 +22350,11 @@
       <c r="AA358" s="14"/>
       <c r="AB358" s="14"/>
       <c r="AC358" s="14"/>
-      <c r="AD358" s="13"/>
+      <c r="AD358" s="14"/>
       <c r="AE358" s="13"/>
-    </row>
-    <row r="359" spans="1:31">
+      <c r="AF358" s="13"/>
+    </row>
+    <row r="359" spans="1:32">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -22019,10 +22384,11 @@
       <c r="AA359" s="14"/>
       <c r="AB359" s="14"/>
       <c r="AC359" s="14"/>
-      <c r="AD359" s="13"/>
+      <c r="AD359" s="14"/>
       <c r="AE359" s="13"/>
-    </row>
-    <row r="360" spans="1:31">
+      <c r="AF359" s="13"/>
+    </row>
+    <row r="360" spans="1:32">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -22052,10 +22418,11 @@
       <c r="AA360" s="14"/>
       <c r="AB360" s="14"/>
       <c r="AC360" s="14"/>
-      <c r="AD360" s="13"/>
+      <c r="AD360" s="14"/>
       <c r="AE360" s="13"/>
-    </row>
-    <row r="361" spans="1:31">
+      <c r="AF360" s="13"/>
+    </row>
+    <row r="361" spans="1:32">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -22085,10 +22452,11 @@
       <c r="AA361" s="14"/>
       <c r="AB361" s="14"/>
       <c r="AC361" s="14"/>
-      <c r="AD361" s="13"/>
+      <c r="AD361" s="14"/>
       <c r="AE361" s="13"/>
-    </row>
-    <row r="362" spans="1:31">
+      <c r="AF361" s="13"/>
+    </row>
+    <row r="362" spans="1:32">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -22118,10 +22486,11 @@
       <c r="AA362" s="14"/>
       <c r="AB362" s="14"/>
       <c r="AC362" s="14"/>
-      <c r="AD362" s="13"/>
+      <c r="AD362" s="14"/>
       <c r="AE362" s="13"/>
-    </row>
-    <row r="363" spans="1:31">
+      <c r="AF362" s="13"/>
+    </row>
+    <row r="363" spans="1:32">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -22151,10 +22520,11 @@
       <c r="AA363" s="14"/>
       <c r="AB363" s="14"/>
       <c r="AC363" s="14"/>
-      <c r="AD363" s="13"/>
+      <c r="AD363" s="14"/>
       <c r="AE363" s="13"/>
-    </row>
-    <row r="364" spans="1:31">
+      <c r="AF363" s="13"/>
+    </row>
+    <row r="364" spans="1:32">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -22184,10 +22554,11 @@
       <c r="AA364" s="14"/>
       <c r="AB364" s="14"/>
       <c r="AC364" s="14"/>
-      <c r="AD364" s="13"/>
+      <c r="AD364" s="14"/>
       <c r="AE364" s="13"/>
-    </row>
-    <row r="365" spans="1:31">
+      <c r="AF364" s="13"/>
+    </row>
+    <row r="365" spans="1:32">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -22217,10 +22588,11 @@
       <c r="AA365" s="14"/>
       <c r="AB365" s="14"/>
       <c r="AC365" s="14"/>
-      <c r="AD365" s="13"/>
+      <c r="AD365" s="14"/>
       <c r="AE365" s="13"/>
-    </row>
-    <row r="366" spans="1:31">
+      <c r="AF365" s="13"/>
+    </row>
+    <row r="366" spans="1:32">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -22250,10 +22622,11 @@
       <c r="AA366" s="14"/>
       <c r="AB366" s="14"/>
       <c r="AC366" s="14"/>
-      <c r="AD366" s="13"/>
+      <c r="AD366" s="14"/>
       <c r="AE366" s="13"/>
-    </row>
-    <row r="367" spans="1:31">
+      <c r="AF366" s="13"/>
+    </row>
+    <row r="367" spans="1:32">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -22283,10 +22656,11 @@
       <c r="AA367" s="14"/>
       <c r="AB367" s="14"/>
       <c r="AC367" s="14"/>
-      <c r="AD367" s="13"/>
+      <c r="AD367" s="14"/>
       <c r="AE367" s="13"/>
-    </row>
-    <row r="368" spans="1:31">
+      <c r="AF367" s="13"/>
+    </row>
+    <row r="368" spans="1:32">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -22316,10 +22690,11 @@
       <c r="AA368" s="14"/>
       <c r="AB368" s="14"/>
       <c r="AC368" s="14"/>
-      <c r="AD368" s="13"/>
+      <c r="AD368" s="14"/>
       <c r="AE368" s="13"/>
-    </row>
-    <row r="369" spans="1:31">
+      <c r="AF368" s="13"/>
+    </row>
+    <row r="369" spans="1:32">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -22349,10 +22724,11 @@
       <c r="AA369" s="14"/>
       <c r="AB369" s="14"/>
       <c r="AC369" s="14"/>
-      <c r="AD369" s="13"/>
+      <c r="AD369" s="14"/>
       <c r="AE369" s="13"/>
-    </row>
-    <row r="370" spans="1:31">
+      <c r="AF369" s="13"/>
+    </row>
+    <row r="370" spans="1:32">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -22382,10 +22758,11 @@
       <c r="AA370" s="14"/>
       <c r="AB370" s="14"/>
       <c r="AC370" s="14"/>
-      <c r="AD370" s="13"/>
+      <c r="AD370" s="14"/>
       <c r="AE370" s="13"/>
-    </row>
-    <row r="371" spans="1:31">
+      <c r="AF370" s="13"/>
+    </row>
+    <row r="371" spans="1:32">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -22415,10 +22792,11 @@
       <c r="AA371" s="14"/>
       <c r="AB371" s="14"/>
       <c r="AC371" s="14"/>
-      <c r="AD371" s="13"/>
+      <c r="AD371" s="14"/>
       <c r="AE371" s="13"/>
-    </row>
-    <row r="372" spans="1:31">
+      <c r="AF371" s="13"/>
+    </row>
+    <row r="372" spans="1:32">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -22448,10 +22826,11 @@
       <c r="AA372" s="14"/>
       <c r="AB372" s="14"/>
       <c r="AC372" s="14"/>
-      <c r="AD372" s="13"/>
+      <c r="AD372" s="14"/>
       <c r="AE372" s="13"/>
-    </row>
-    <row r="373" spans="1:31">
+      <c r="AF372" s="13"/>
+    </row>
+    <row r="373" spans="1:32">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -22481,10 +22860,11 @@
       <c r="AA373" s="14"/>
       <c r="AB373" s="14"/>
       <c r="AC373" s="14"/>
-      <c r="AD373" s="13"/>
+      <c r="AD373" s="14"/>
       <c r="AE373" s="13"/>
-    </row>
-    <row r="374" spans="1:31">
+      <c r="AF373" s="13"/>
+    </row>
+    <row r="374" spans="1:32">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -22514,10 +22894,11 @@
       <c r="AA374" s="14"/>
       <c r="AB374" s="14"/>
       <c r="AC374" s="14"/>
-      <c r="AD374" s="13"/>
+      <c r="AD374" s="14"/>
       <c r="AE374" s="13"/>
-    </row>
-    <row r="375" spans="1:31">
+      <c r="AF374" s="13"/>
+    </row>
+    <row r="375" spans="1:32">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -22547,10 +22928,11 @@
       <c r="AA375" s="14"/>
       <c r="AB375" s="14"/>
       <c r="AC375" s="14"/>
-      <c r="AD375" s="13"/>
+      <c r="AD375" s="14"/>
       <c r="AE375" s="13"/>
-    </row>
-    <row r="376" spans="1:31">
+      <c r="AF375" s="13"/>
+    </row>
+    <row r="376" spans="1:32">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -22580,10 +22962,11 @@
       <c r="AA376" s="14"/>
       <c r="AB376" s="14"/>
       <c r="AC376" s="14"/>
-      <c r="AD376" s="13"/>
+      <c r="AD376" s="14"/>
       <c r="AE376" s="13"/>
-    </row>
-    <row r="377" spans="1:31">
+      <c r="AF376" s="13"/>
+    </row>
+    <row r="377" spans="1:32">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -22613,10 +22996,11 @@
       <c r="AA377" s="14"/>
       <c r="AB377" s="14"/>
       <c r="AC377" s="14"/>
-      <c r="AD377" s="13"/>
+      <c r="AD377" s="14"/>
       <c r="AE377" s="13"/>
-    </row>
-    <row r="378" spans="1:31">
+      <c r="AF377" s="13"/>
+    </row>
+    <row r="378" spans="1:32">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -22646,10 +23030,11 @@
       <c r="AA378" s="14"/>
       <c r="AB378" s="14"/>
       <c r="AC378" s="14"/>
-      <c r="AD378" s="13"/>
+      <c r="AD378" s="14"/>
       <c r="AE378" s="13"/>
-    </row>
-    <row r="379" spans="1:31">
+      <c r="AF378" s="13"/>
+    </row>
+    <row r="379" spans="1:32">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -22679,10 +23064,11 @@
       <c r="AA379" s="14"/>
       <c r="AB379" s="14"/>
       <c r="AC379" s="14"/>
-      <c r="AD379" s="13"/>
+      <c r="AD379" s="14"/>
       <c r="AE379" s="13"/>
-    </row>
-    <row r="380" spans="1:31">
+      <c r="AF379" s="13"/>
+    </row>
+    <row r="380" spans="1:32">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -22712,10 +23098,11 @@
       <c r="AA380" s="14"/>
       <c r="AB380" s="14"/>
       <c r="AC380" s="14"/>
-      <c r="AD380" s="13"/>
+      <c r="AD380" s="14"/>
       <c r="AE380" s="13"/>
-    </row>
-    <row r="381" spans="1:31">
+      <c r="AF380" s="13"/>
+    </row>
+    <row r="381" spans="1:32">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -22745,10 +23132,11 @@
       <c r="AA381" s="14"/>
       <c r="AB381" s="14"/>
       <c r="AC381" s="14"/>
-      <c r="AD381" s="13"/>
+      <c r="AD381" s="14"/>
       <c r="AE381" s="13"/>
-    </row>
-    <row r="382" spans="1:31">
+      <c r="AF381" s="13"/>
+    </row>
+    <row r="382" spans="1:32">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -22778,10 +23166,11 @@
       <c r="AA382" s="14"/>
       <c r="AB382" s="14"/>
       <c r="AC382" s="14"/>
-      <c r="AD382" s="13"/>
+      <c r="AD382" s="14"/>
       <c r="AE382" s="13"/>
-    </row>
-    <row r="383" spans="1:31">
+      <c r="AF382" s="13"/>
+    </row>
+    <row r="383" spans="1:32">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -22811,10 +23200,11 @@
       <c r="AA383" s="14"/>
       <c r="AB383" s="14"/>
       <c r="AC383" s="14"/>
-      <c r="AD383" s="13"/>
+      <c r="AD383" s="14"/>
       <c r="AE383" s="13"/>
-    </row>
-    <row r="384" spans="1:31">
+      <c r="AF383" s="13"/>
+    </row>
+    <row r="384" spans="1:32">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -22844,10 +23234,11 @@
       <c r="AA384" s="14"/>
       <c r="AB384" s="14"/>
       <c r="AC384" s="14"/>
-      <c r="AD384" s="13"/>
+      <c r="AD384" s="14"/>
       <c r="AE384" s="13"/>
-    </row>
-    <row r="385" spans="1:31">
+      <c r="AF384" s="13"/>
+    </row>
+    <row r="385" spans="1:32">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -22877,10 +23268,11 @@
       <c r="AA385" s="14"/>
       <c r="AB385" s="14"/>
       <c r="AC385" s="14"/>
-      <c r="AD385" s="13"/>
+      <c r="AD385" s="14"/>
       <c r="AE385" s="13"/>
-    </row>
-    <row r="386" spans="1:31">
+      <c r="AF385" s="13"/>
+    </row>
+    <row r="386" spans="1:32">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -22910,10 +23302,11 @@
       <c r="AA386" s="14"/>
       <c r="AB386" s="14"/>
       <c r="AC386" s="14"/>
-      <c r="AD386" s="13"/>
+      <c r="AD386" s="14"/>
       <c r="AE386" s="13"/>
-    </row>
-    <row r="387" spans="1:31">
+      <c r="AF386" s="13"/>
+    </row>
+    <row r="387" spans="1:32">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -22943,10 +23336,11 @@
       <c r="AA387" s="14"/>
       <c r="AB387" s="14"/>
       <c r="AC387" s="14"/>
-      <c r="AD387" s="13"/>
+      <c r="AD387" s="14"/>
       <c r="AE387" s="13"/>
-    </row>
-    <row r="388" spans="1:31">
+      <c r="AF387" s="13"/>
+    </row>
+    <row r="388" spans="1:32">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -22976,10 +23370,11 @@
       <c r="AA388" s="14"/>
       <c r="AB388" s="14"/>
       <c r="AC388" s="14"/>
-      <c r="AD388" s="13"/>
+      <c r="AD388" s="14"/>
       <c r="AE388" s="13"/>
-    </row>
-    <row r="389" spans="1:31">
+      <c r="AF388" s="13"/>
+    </row>
+    <row r="389" spans="1:32">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -23009,10 +23404,11 @@
       <c r="AA389" s="14"/>
       <c r="AB389" s="14"/>
       <c r="AC389" s="14"/>
-      <c r="AD389" s="13"/>
+      <c r="AD389" s="14"/>
       <c r="AE389" s="13"/>
-    </row>
-    <row r="390" spans="1:31">
+      <c r="AF389" s="13"/>
+    </row>
+    <row r="390" spans="1:32">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -23042,10 +23438,11 @@
       <c r="AA390" s="14"/>
       <c r="AB390" s="14"/>
       <c r="AC390" s="14"/>
-      <c r="AD390" s="13"/>
+      <c r="AD390" s="14"/>
       <c r="AE390" s="13"/>
-    </row>
-    <row r="391" spans="1:31">
+      <c r="AF390" s="13"/>
+    </row>
+    <row r="391" spans="1:32">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -23075,10 +23472,11 @@
       <c r="AA391" s="14"/>
       <c r="AB391" s="14"/>
       <c r="AC391" s="14"/>
-      <c r="AD391" s="13"/>
+      <c r="AD391" s="14"/>
       <c r="AE391" s="13"/>
-    </row>
-    <row r="392" spans="1:31">
+      <c r="AF391" s="13"/>
+    </row>
+    <row r="392" spans="1:32">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -23108,10 +23506,11 @@
       <c r="AA392" s="14"/>
       <c r="AB392" s="14"/>
       <c r="AC392" s="14"/>
-      <c r="AD392" s="13"/>
+      <c r="AD392" s="14"/>
       <c r="AE392" s="13"/>
-    </row>
-    <row r="393" spans="1:31">
+      <c r="AF392" s="13"/>
+    </row>
+    <row r="393" spans="1:32">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -23141,10 +23540,11 @@
       <c r="AA393" s="14"/>
       <c r="AB393" s="14"/>
       <c r="AC393" s="14"/>
-      <c r="AD393" s="13"/>
+      <c r="AD393" s="14"/>
       <c r="AE393" s="13"/>
-    </row>
-    <row r="394" spans="1:31">
+      <c r="AF393" s="13"/>
+    </row>
+    <row r="394" spans="1:32">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -23174,10 +23574,11 @@
       <c r="AA394" s="14"/>
       <c r="AB394" s="14"/>
       <c r="AC394" s="14"/>
-      <c r="AD394" s="13"/>
+      <c r="AD394" s="14"/>
       <c r="AE394" s="13"/>
-    </row>
-    <row r="395" spans="1:31">
+      <c r="AF394" s="13"/>
+    </row>
+    <row r="395" spans="1:32">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -23207,10 +23608,11 @@
       <c r="AA395" s="14"/>
       <c r="AB395" s="14"/>
       <c r="AC395" s="14"/>
-      <c r="AD395" s="13"/>
+      <c r="AD395" s="14"/>
       <c r="AE395" s="13"/>
-    </row>
-    <row r="396" spans="1:31">
+      <c r="AF395" s="13"/>
+    </row>
+    <row r="396" spans="1:32">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -23240,10 +23642,11 @@
       <c r="AA396" s="14"/>
       <c r="AB396" s="14"/>
       <c r="AC396" s="14"/>
-      <c r="AD396" s="13"/>
+      <c r="AD396" s="14"/>
       <c r="AE396" s="13"/>
-    </row>
-    <row r="397" spans="1:31">
+      <c r="AF396" s="13"/>
+    </row>
+    <row r="397" spans="1:32">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -23273,10 +23676,11 @@
       <c r="AA397" s="14"/>
       <c r="AB397" s="14"/>
       <c r="AC397" s="14"/>
-      <c r="AD397" s="13"/>
+      <c r="AD397" s="14"/>
       <c r="AE397" s="13"/>
-    </row>
-    <row r="398" spans="1:31">
+      <c r="AF397" s="13"/>
+    </row>
+    <row r="398" spans="1:32">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -23306,10 +23710,11 @@
       <c r="AA398" s="14"/>
       <c r="AB398" s="14"/>
       <c r="AC398" s="14"/>
-      <c r="AD398" s="13"/>
+      <c r="AD398" s="14"/>
       <c r="AE398" s="13"/>
-    </row>
-    <row r="399" spans="1:31">
+      <c r="AF398" s="13"/>
+    </row>
+    <row r="399" spans="1:32">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -23339,10 +23744,11 @@
       <c r="AA399" s="14"/>
       <c r="AB399" s="14"/>
       <c r="AC399" s="14"/>
-      <c r="AD399" s="13"/>
+      <c r="AD399" s="14"/>
       <c r="AE399" s="13"/>
-    </row>
-    <row r="400" spans="1:31">
+      <c r="AF399" s="13"/>
+    </row>
+    <row r="400" spans="1:32">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -23372,10 +23778,11 @@
       <c r="AA400" s="14"/>
       <c r="AB400" s="14"/>
       <c r="AC400" s="14"/>
-      <c r="AD400" s="13"/>
+      <c r="AD400" s="14"/>
       <c r="AE400" s="13"/>
-    </row>
-    <row r="401" spans="1:31">
+      <c r="AF400" s="13"/>
+    </row>
+    <row r="401" spans="1:32">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -23405,10 +23812,11 @@
       <c r="AA401" s="14"/>
       <c r="AB401" s="14"/>
       <c r="AC401" s="14"/>
-      <c r="AD401" s="13"/>
+      <c r="AD401" s="14"/>
       <c r="AE401" s="13"/>
-    </row>
-    <row r="402" spans="1:31">
+      <c r="AF401" s="13"/>
+    </row>
+    <row r="402" spans="1:32">
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -23438,10 +23846,11 @@
       <c r="AA402" s="14"/>
       <c r="AB402" s="14"/>
       <c r="AC402" s="14"/>
-      <c r="AD402" s="13"/>
+      <c r="AD402" s="14"/>
       <c r="AE402" s="13"/>
-    </row>
-    <row r="403" spans="1:31">
+      <c r="AF402" s="13"/>
+    </row>
+    <row r="403" spans="1:32">
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -23471,10 +23880,11 @@
       <c r="AA403" s="14"/>
       <c r="AB403" s="14"/>
       <c r="AC403" s="14"/>
-      <c r="AD403" s="13"/>
+      <c r="AD403" s="14"/>
       <c r="AE403" s="13"/>
-    </row>
-    <row r="404" spans="1:31">
+      <c r="AF403" s="13"/>
+    </row>
+    <row r="404" spans="1:32">
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -23504,10 +23914,11 @@
       <c r="AA404" s="14"/>
       <c r="AB404" s="14"/>
       <c r="AC404" s="14"/>
-      <c r="AD404" s="13"/>
+      <c r="AD404" s="14"/>
       <c r="AE404" s="13"/>
-    </row>
-    <row r="405" spans="1:31">
+      <c r="AF404" s="13"/>
+    </row>
+    <row r="405" spans="1:32">
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -23537,10 +23948,11 @@
       <c r="AA405" s="14"/>
       <c r="AB405" s="14"/>
       <c r="AC405" s="14"/>
-      <c r="AD405" s="13"/>
+      <c r="AD405" s="14"/>
       <c r="AE405" s="13"/>
-    </row>
-    <row r="406" spans="1:31">
+      <c r="AF405" s="13"/>
+    </row>
+    <row r="406" spans="1:32">
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -23570,10 +23982,11 @@
       <c r="AA406" s="14"/>
       <c r="AB406" s="14"/>
       <c r="AC406" s="14"/>
-      <c r="AD406" s="13"/>
+      <c r="AD406" s="14"/>
       <c r="AE406" s="13"/>
-    </row>
-    <row r="407" spans="1:31">
+      <c r="AF406" s="13"/>
+    </row>
+    <row r="407" spans="1:32">
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -23603,10 +24016,11 @@
       <c r="AA407" s="14"/>
       <c r="AB407" s="14"/>
       <c r="AC407" s="14"/>
-      <c r="AD407" s="13"/>
+      <c r="AD407" s="14"/>
       <c r="AE407" s="13"/>
-    </row>
-    <row r="408" spans="1:31">
+      <c r="AF407" s="13"/>
+    </row>
+    <row r="408" spans="1:32">
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -23636,10 +24050,11 @@
       <c r="AA408" s="14"/>
       <c r="AB408" s="14"/>
       <c r="AC408" s="14"/>
-      <c r="AD408" s="13"/>
+      <c r="AD408" s="14"/>
       <c r="AE408" s="13"/>
-    </row>
-    <row r="409" spans="1:31">
+      <c r="AF408" s="13"/>
+    </row>
+    <row r="409" spans="1:32">
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -23669,10 +24084,11 @@
       <c r="AA409" s="14"/>
       <c r="AB409" s="14"/>
       <c r="AC409" s="14"/>
-      <c r="AD409" s="13"/>
+      <c r="AD409" s="14"/>
       <c r="AE409" s="13"/>
-    </row>
-    <row r="410" spans="1:31">
+      <c r="AF409" s="13"/>
+    </row>
+    <row r="410" spans="1:32">
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -23702,10 +24118,11 @@
       <c r="AA410" s="14"/>
       <c r="AB410" s="14"/>
       <c r="AC410" s="14"/>
-      <c r="AD410" s="13"/>
+      <c r="AD410" s="14"/>
       <c r="AE410" s="13"/>
-    </row>
-    <row r="411" spans="1:31">
+      <c r="AF410" s="13"/>
+    </row>
+    <row r="411" spans="1:32">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -23735,10 +24152,11 @@
       <c r="AA411" s="14"/>
       <c r="AB411" s="14"/>
       <c r="AC411" s="14"/>
-      <c r="AD411" s="13"/>
+      <c r="AD411" s="14"/>
       <c r="AE411" s="13"/>
-    </row>
-    <row r="412" spans="1:31">
+      <c r="AF411" s="13"/>
+    </row>
+    <row r="412" spans="1:32">
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -23768,10 +24186,11 @@
       <c r="AA412" s="14"/>
       <c r="AB412" s="14"/>
       <c r="AC412" s="14"/>
-      <c r="AD412" s="13"/>
+      <c r="AD412" s="14"/>
       <c r="AE412" s="13"/>
-    </row>
-    <row r="413" spans="1:31">
+      <c r="AF412" s="13"/>
+    </row>
+    <row r="413" spans="1:32">
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -23801,10 +24220,11 @@
       <c r="AA413" s="14"/>
       <c r="AB413" s="14"/>
       <c r="AC413" s="14"/>
-      <c r="AD413" s="13"/>
+      <c r="AD413" s="14"/>
       <c r="AE413" s="13"/>
-    </row>
-    <row r="414" spans="1:31">
+      <c r="AF413" s="13"/>
+    </row>
+    <row r="414" spans="1:32">
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -23834,10 +24254,11 @@
       <c r="AA414" s="14"/>
       <c r="AB414" s="14"/>
       <c r="AC414" s="14"/>
-      <c r="AD414" s="13"/>
+      <c r="AD414" s="14"/>
       <c r="AE414" s="13"/>
-    </row>
-    <row r="415" spans="1:31">
+      <c r="AF414" s="13"/>
+    </row>
+    <row r="415" spans="1:32">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -23867,10 +24288,11 @@
       <c r="AA415" s="14"/>
       <c r="AB415" s="14"/>
       <c r="AC415" s="14"/>
-      <c r="AD415" s="13"/>
+      <c r="AD415" s="14"/>
       <c r="AE415" s="13"/>
-    </row>
-    <row r="416" spans="1:31">
+      <c r="AF415" s="13"/>
+    </row>
+    <row r="416" spans="1:32">
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -23900,10 +24322,11 @@
       <c r="AA416" s="14"/>
       <c r="AB416" s="14"/>
       <c r="AC416" s="14"/>
-      <c r="AD416" s="13"/>
+      <c r="AD416" s="14"/>
       <c r="AE416" s="13"/>
-    </row>
-    <row r="417" spans="1:31">
+      <c r="AF416" s="13"/>
+    </row>
+    <row r="417" spans="1:32">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -23933,10 +24356,11 @@
       <c r="AA417" s="14"/>
       <c r="AB417" s="14"/>
       <c r="AC417" s="14"/>
-      <c r="AD417" s="13"/>
+      <c r="AD417" s="14"/>
       <c r="AE417" s="13"/>
-    </row>
-    <row r="418" spans="1:31">
+      <c r="AF417" s="13"/>
+    </row>
+    <row r="418" spans="1:32">
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -23966,10 +24390,11 @@
       <c r="AA418" s="14"/>
       <c r="AB418" s="14"/>
       <c r="AC418" s="14"/>
-      <c r="AD418" s="13"/>
+      <c r="AD418" s="14"/>
       <c r="AE418" s="13"/>
-    </row>
-    <row r="419" spans="1:31">
+      <c r="AF418" s="13"/>
+    </row>
+    <row r="419" spans="1:32">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -23999,10 +24424,11 @@
       <c r="AA419" s="14"/>
       <c r="AB419" s="14"/>
       <c r="AC419" s="14"/>
-      <c r="AD419" s="13"/>
+      <c r="AD419" s="14"/>
       <c r="AE419" s="13"/>
-    </row>
-    <row r="420" spans="1:31">
+      <c r="AF419" s="13"/>
+    </row>
+    <row r="420" spans="1:32">
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -24032,10 +24458,11 @@
       <c r="AA420" s="14"/>
       <c r="AB420" s="14"/>
       <c r="AC420" s="14"/>
-      <c r="AD420" s="13"/>
+      <c r="AD420" s="14"/>
       <c r="AE420" s="13"/>
-    </row>
-    <row r="421" spans="1:31">
+      <c r="AF420" s="13"/>
+    </row>
+    <row r="421" spans="1:32">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -24065,10 +24492,11 @@
       <c r="AA421" s="14"/>
       <c r="AB421" s="14"/>
       <c r="AC421" s="14"/>
-      <c r="AD421" s="13"/>
+      <c r="AD421" s="14"/>
       <c r="AE421" s="13"/>
-    </row>
-    <row r="422" spans="1:31">
+      <c r="AF421" s="13"/>
+    </row>
+    <row r="422" spans="1:32">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -24098,10 +24526,11 @@
       <c r="AA422" s="14"/>
       <c r="AB422" s="14"/>
       <c r="AC422" s="14"/>
-      <c r="AD422" s="13"/>
+      <c r="AD422" s="14"/>
       <c r="AE422" s="13"/>
-    </row>
-    <row r="423" spans="1:31">
+      <c r="AF422" s="13"/>
+    </row>
+    <row r="423" spans="1:32">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -24131,10 +24560,11 @@
       <c r="AA423" s="14"/>
       <c r="AB423" s="14"/>
       <c r="AC423" s="14"/>
-      <c r="AD423" s="13"/>
+      <c r="AD423" s="14"/>
       <c r="AE423" s="13"/>
-    </row>
-    <row r="424" spans="1:31">
+      <c r="AF423" s="13"/>
+    </row>
+    <row r="424" spans="1:32">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -24164,10 +24594,11 @@
       <c r="AA424" s="14"/>
       <c r="AB424" s="14"/>
       <c r="AC424" s="14"/>
-      <c r="AD424" s="13"/>
+      <c r="AD424" s="14"/>
       <c r="AE424" s="13"/>
-    </row>
-    <row r="425" spans="1:31">
+      <c r="AF424" s="13"/>
+    </row>
+    <row r="425" spans="1:32">
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -24197,10 +24628,11 @@
       <c r="AA425" s="14"/>
       <c r="AB425" s="14"/>
       <c r="AC425" s="14"/>
-      <c r="AD425" s="13"/>
+      <c r="AD425" s="14"/>
       <c r="AE425" s="13"/>
-    </row>
-    <row r="426" spans="1:31">
+      <c r="AF425" s="13"/>
+    </row>
+    <row r="426" spans="1:32">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -24230,10 +24662,11 @@
       <c r="AA426" s="14"/>
       <c r="AB426" s="14"/>
       <c r="AC426" s="14"/>
-      <c r="AD426" s="13"/>
+      <c r="AD426" s="14"/>
       <c r="AE426" s="13"/>
-    </row>
-    <row r="427" spans="1:31">
+      <c r="AF426" s="13"/>
+    </row>
+    <row r="427" spans="1:32">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -24263,10 +24696,11 @@
       <c r="AA427" s="14"/>
       <c r="AB427" s="14"/>
       <c r="AC427" s="14"/>
-      <c r="AD427" s="13"/>
+      <c r="AD427" s="14"/>
       <c r="AE427" s="13"/>
-    </row>
-    <row r="428" spans="1:31">
+      <c r="AF427" s="13"/>
+    </row>
+    <row r="428" spans="1:32">
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -24296,10 +24730,11 @@
       <c r="AA428" s="14"/>
       <c r="AB428" s="14"/>
       <c r="AC428" s="14"/>
-      <c r="AD428" s="13"/>
+      <c r="AD428" s="14"/>
       <c r="AE428" s="13"/>
-    </row>
-    <row r="429" spans="1:31">
+      <c r="AF428" s="13"/>
+    </row>
+    <row r="429" spans="1:32">
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -24329,10 +24764,11 @@
       <c r="AA429" s="14"/>
       <c r="AB429" s="14"/>
       <c r="AC429" s="14"/>
-      <c r="AD429" s="13"/>
+      <c r="AD429" s="14"/>
       <c r="AE429" s="13"/>
-    </row>
-    <row r="430" spans="1:31">
+      <c r="AF429" s="13"/>
+    </row>
+    <row r="430" spans="1:32">
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -24362,10 +24798,11 @@
       <c r="AA430" s="14"/>
       <c r="AB430" s="14"/>
       <c r="AC430" s="14"/>
-      <c r="AD430" s="13"/>
+      <c r="AD430" s="14"/>
       <c r="AE430" s="13"/>
-    </row>
-    <row r="431" spans="1:31">
+      <c r="AF430" s="13"/>
+    </row>
+    <row r="431" spans="1:32">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -24395,10 +24832,11 @@
       <c r="AA431" s="14"/>
       <c r="AB431" s="14"/>
       <c r="AC431" s="14"/>
-      <c r="AD431" s="13"/>
+      <c r="AD431" s="14"/>
       <c r="AE431" s="13"/>
-    </row>
-    <row r="432" spans="1:31">
+      <c r="AF431" s="13"/>
+    </row>
+    <row r="432" spans="1:32">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
@@ -24428,10 +24866,11 @@
       <c r="AA432" s="14"/>
       <c r="AB432" s="14"/>
       <c r="AC432" s="14"/>
-      <c r="AD432" s="13"/>
+      <c r="AD432" s="14"/>
       <c r="AE432" s="13"/>
-    </row>
-    <row r="433" spans="1:31">
+      <c r="AF432" s="13"/>
+    </row>
+    <row r="433" spans="1:32">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
@@ -24461,10 +24900,11 @@
       <c r="AA433" s="14"/>
       <c r="AB433" s="14"/>
       <c r="AC433" s="14"/>
-      <c r="AD433" s="13"/>
+      <c r="AD433" s="14"/>
       <c r="AE433" s="13"/>
-    </row>
-    <row r="434" spans="1:31">
+      <c r="AF433" s="13"/>
+    </row>
+    <row r="434" spans="1:32">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -24494,10 +24934,11 @@
       <c r="AA434" s="14"/>
       <c r="AB434" s="14"/>
       <c r="AC434" s="14"/>
-      <c r="AD434" s="13"/>
+      <c r="AD434" s="14"/>
       <c r="AE434" s="13"/>
-    </row>
-    <row r="435" spans="1:31">
+      <c r="AF434" s="13"/>
+    </row>
+    <row r="435" spans="1:32">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -24527,10 +24968,11 @@
       <c r="AA435" s="14"/>
       <c r="AB435" s="14"/>
       <c r="AC435" s="14"/>
-      <c r="AD435" s="13"/>
+      <c r="AD435" s="14"/>
       <c r="AE435" s="13"/>
-    </row>
-    <row r="436" spans="1:31">
+      <c r="AF435" s="13"/>
+    </row>
+    <row r="436" spans="1:32">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -24560,10 +25002,11 @@
       <c r="AA436" s="14"/>
       <c r="AB436" s="14"/>
       <c r="AC436" s="14"/>
-      <c r="AD436" s="13"/>
+      <c r="AD436" s="14"/>
       <c r="AE436" s="13"/>
-    </row>
-    <row r="437" spans="1:31">
+      <c r="AF436" s="13"/>
+    </row>
+    <row r="437" spans="1:32">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -24593,10 +25036,11 @@
       <c r="AA437" s="14"/>
       <c r="AB437" s="14"/>
       <c r="AC437" s="14"/>
-      <c r="AD437" s="13"/>
+      <c r="AD437" s="14"/>
       <c r="AE437" s="13"/>
-    </row>
-    <row r="438" spans="1:31">
+      <c r="AF437" s="13"/>
+    </row>
+    <row r="438" spans="1:32">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -24626,10 +25070,11 @@
       <c r="AA438" s="14"/>
       <c r="AB438" s="14"/>
       <c r="AC438" s="14"/>
-      <c r="AD438" s="13"/>
+      <c r="AD438" s="14"/>
       <c r="AE438" s="13"/>
-    </row>
-    <row r="439" spans="1:31">
+      <c r="AF438" s="13"/>
+    </row>
+    <row r="439" spans="1:32">
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
@@ -24659,10 +25104,11 @@
       <c r="AA439" s="14"/>
       <c r="AB439" s="14"/>
       <c r="AC439" s="14"/>
-      <c r="AD439" s="13"/>
+      <c r="AD439" s="14"/>
       <c r="AE439" s="13"/>
-    </row>
-    <row r="440" spans="1:31">
+      <c r="AF439" s="13"/>
+    </row>
+    <row r="440" spans="1:32">
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
@@ -24692,10 +25138,11 @@
       <c r="AA440" s="14"/>
       <c r="AB440" s="14"/>
       <c r="AC440" s="14"/>
-      <c r="AD440" s="13"/>
+      <c r="AD440" s="14"/>
       <c r="AE440" s="13"/>
-    </row>
-    <row r="441" spans="1:31">
+      <c r="AF440" s="13"/>
+    </row>
+    <row r="441" spans="1:32">
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
@@ -24725,10 +25172,11 @@
       <c r="AA441" s="14"/>
       <c r="AB441" s="14"/>
       <c r="AC441" s="14"/>
-      <c r="AD441" s="13"/>
+      <c r="AD441" s="14"/>
       <c r="AE441" s="13"/>
-    </row>
-    <row r="442" spans="1:31">
+      <c r="AF441" s="13"/>
+    </row>
+    <row r="442" spans="1:32">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -24758,10 +25206,11 @@
       <c r="AA442" s="14"/>
       <c r="AB442" s="14"/>
       <c r="AC442" s="14"/>
-      <c r="AD442" s="13"/>
+      <c r="AD442" s="14"/>
       <c r="AE442" s="13"/>
-    </row>
-    <row r="443" spans="1:31">
+      <c r="AF442" s="13"/>
+    </row>
+    <row r="443" spans="1:32">
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -24791,10 +25240,11 @@
       <c r="AA443" s="14"/>
       <c r="AB443" s="14"/>
       <c r="AC443" s="14"/>
-      <c r="AD443" s="13"/>
+      <c r="AD443" s="14"/>
       <c r="AE443" s="13"/>
-    </row>
-    <row r="444" spans="1:31">
+      <c r="AF443" s="13"/>
+    </row>
+    <row r="444" spans="1:32">
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -24824,10 +25274,11 @@
       <c r="AA444" s="14"/>
       <c r="AB444" s="14"/>
       <c r="AC444" s="14"/>
-      <c r="AD444" s="13"/>
+      <c r="AD444" s="14"/>
       <c r="AE444" s="13"/>
-    </row>
-    <row r="445" spans="1:31">
+      <c r="AF444" s="13"/>
+    </row>
+    <row r="445" spans="1:32">
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -24857,10 +25308,11 @@
       <c r="AA445" s="14"/>
       <c r="AB445" s="14"/>
       <c r="AC445" s="14"/>
-      <c r="AD445" s="13"/>
+      <c r="AD445" s="14"/>
       <c r="AE445" s="13"/>
-    </row>
-    <row r="446" spans="1:31">
+      <c r="AF445" s="13"/>
+    </row>
+    <row r="446" spans="1:32">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -24890,10 +25342,11 @@
       <c r="AA446" s="14"/>
       <c r="AB446" s="14"/>
       <c r="AC446" s="14"/>
-      <c r="AD446" s="13"/>
+      <c r="AD446" s="14"/>
       <c r="AE446" s="13"/>
-    </row>
-    <row r="447" spans="1:31">
+      <c r="AF446" s="13"/>
+    </row>
+    <row r="447" spans="1:32">
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
@@ -24923,10 +25376,11 @@
       <c r="AA447" s="14"/>
       <c r="AB447" s="14"/>
       <c r="AC447" s="14"/>
-      <c r="AD447" s="13"/>
+      <c r="AD447" s="14"/>
       <c r="AE447" s="13"/>
-    </row>
-    <row r="448" spans="1:31">
+      <c r="AF447" s="13"/>
+    </row>
+    <row r="448" spans="1:32">
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -24956,10 +25410,11 @@
       <c r="AA448" s="14"/>
       <c r="AB448" s="14"/>
       <c r="AC448" s="14"/>
-      <c r="AD448" s="13"/>
+      <c r="AD448" s="14"/>
       <c r="AE448" s="13"/>
-    </row>
-    <row r="449" spans="1:31">
+      <c r="AF448" s="13"/>
+    </row>
+    <row r="449" spans="1:32">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -24989,10 +25444,11 @@
       <c r="AA449" s="14"/>
       <c r="AB449" s="14"/>
       <c r="AC449" s="14"/>
-      <c r="AD449" s="13"/>
+      <c r="AD449" s="14"/>
       <c r="AE449" s="13"/>
-    </row>
-    <row r="450" spans="1:31">
+      <c r="AF449" s="13"/>
+    </row>
+    <row r="450" spans="1:32">
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
@@ -25022,10 +25478,11 @@
       <c r="AA450" s="14"/>
       <c r="AB450" s="14"/>
       <c r="AC450" s="14"/>
-      <c r="AD450" s="13"/>
+      <c r="AD450" s="14"/>
       <c r="AE450" s="13"/>
-    </row>
-    <row r="451" spans="1:31">
+      <c r="AF450" s="13"/>
+    </row>
+    <row r="451" spans="1:32">
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
@@ -25055,10 +25512,11 @@
       <c r="AA451" s="14"/>
       <c r="AB451" s="14"/>
       <c r="AC451" s="14"/>
-      <c r="AD451" s="13"/>
+      <c r="AD451" s="14"/>
       <c r="AE451" s="13"/>
-    </row>
-    <row r="452" spans="1:31">
+      <c r="AF451" s="13"/>
+    </row>
+    <row r="452" spans="1:32">
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
@@ -25088,10 +25546,11 @@
       <c r="AA452" s="14"/>
       <c r="AB452" s="14"/>
       <c r="AC452" s="14"/>
-      <c r="AD452" s="13"/>
+      <c r="AD452" s="14"/>
       <c r="AE452" s="13"/>
-    </row>
-    <row r="453" spans="1:31">
+      <c r="AF452" s="13"/>
+    </row>
+    <row r="453" spans="1:32">
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
@@ -25121,10 +25580,11 @@
       <c r="AA453" s="14"/>
       <c r="AB453" s="14"/>
       <c r="AC453" s="14"/>
-      <c r="AD453" s="13"/>
+      <c r="AD453" s="14"/>
       <c r="AE453" s="13"/>
-    </row>
-    <row r="454" spans="1:31">
+      <c r="AF453" s="13"/>
+    </row>
+    <row r="454" spans="1:32">
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
@@ -25154,10 +25614,11 @@
       <c r="AA454" s="14"/>
       <c r="AB454" s="14"/>
       <c r="AC454" s="14"/>
-      <c r="AD454" s="13"/>
+      <c r="AD454" s="14"/>
       <c r="AE454" s="13"/>
-    </row>
-    <row r="455" spans="1:31">
+      <c r="AF454" s="13"/>
+    </row>
+    <row r="455" spans="1:32">
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
@@ -25187,10 +25648,11 @@
       <c r="AA455" s="14"/>
       <c r="AB455" s="14"/>
       <c r="AC455" s="14"/>
-      <c r="AD455" s="13"/>
+      <c r="AD455" s="14"/>
       <c r="AE455" s="13"/>
-    </row>
-    <row r="456" spans="1:31">
+      <c r="AF455" s="13"/>
+    </row>
+    <row r="456" spans="1:32">
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
@@ -25220,10 +25682,11 @@
       <c r="AA456" s="14"/>
       <c r="AB456" s="14"/>
       <c r="AC456" s="14"/>
-      <c r="AD456" s="13"/>
+      <c r="AD456" s="14"/>
       <c r="AE456" s="13"/>
-    </row>
-    <row r="457" spans="1:31">
+      <c r="AF456" s="13"/>
+    </row>
+    <row r="457" spans="1:32">
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
@@ -25253,10 +25716,11 @@
       <c r="AA457" s="14"/>
       <c r="AB457" s="14"/>
       <c r="AC457" s="14"/>
-      <c r="AD457" s="13"/>
+      <c r="AD457" s="14"/>
       <c r="AE457" s="13"/>
-    </row>
-    <row r="458" spans="1:31">
+      <c r="AF457" s="13"/>
+    </row>
+    <row r="458" spans="1:32">
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
@@ -25286,10 +25750,11 @@
       <c r="AA458" s="14"/>
       <c r="AB458" s="14"/>
       <c r="AC458" s="14"/>
-      <c r="AD458" s="13"/>
+      <c r="AD458" s="14"/>
       <c r="AE458" s="13"/>
-    </row>
-    <row r="459" spans="1:31">
+      <c r="AF458" s="13"/>
+    </row>
+    <row r="459" spans="1:32">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
@@ -25319,10 +25784,11 @@
       <c r="AA459" s="14"/>
       <c r="AB459" s="14"/>
       <c r="AC459" s="14"/>
-      <c r="AD459" s="13"/>
+      <c r="AD459" s="14"/>
       <c r="AE459" s="13"/>
-    </row>
-    <row r="460" spans="1:31">
+      <c r="AF459" s="13"/>
+    </row>
+    <row r="460" spans="1:32">
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
@@ -25352,10 +25818,11 @@
       <c r="AA460" s="14"/>
       <c r="AB460" s="14"/>
       <c r="AC460" s="14"/>
-      <c r="AD460" s="13"/>
+      <c r="AD460" s="14"/>
       <c r="AE460" s="13"/>
-    </row>
-    <row r="461" spans="1:31">
+      <c r="AF460" s="13"/>
+    </row>
+    <row r="461" spans="1:32">
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
@@ -25385,10 +25852,11 @@
       <c r="AA461" s="14"/>
       <c r="AB461" s="14"/>
       <c r="AC461" s="14"/>
-      <c r="AD461" s="13"/>
+      <c r="AD461" s="14"/>
       <c r="AE461" s="13"/>
-    </row>
-    <row r="462" spans="1:31">
+      <c r="AF461" s="13"/>
+    </row>
+    <row r="462" spans="1:32">
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
@@ -25418,10 +25886,11 @@
       <c r="AA462" s="14"/>
       <c r="AB462" s="14"/>
       <c r="AC462" s="14"/>
-      <c r="AD462" s="13"/>
+      <c r="AD462" s="14"/>
       <c r="AE462" s="13"/>
-    </row>
-    <row r="463" spans="1:31">
+      <c r="AF462" s="13"/>
+    </row>
+    <row r="463" spans="1:32">
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
@@ -25451,10 +25920,11 @@
       <c r="AA463" s="14"/>
       <c r="AB463" s="14"/>
       <c r="AC463" s="14"/>
-      <c r="AD463" s="13"/>
+      <c r="AD463" s="14"/>
       <c r="AE463" s="13"/>
-    </row>
-    <row r="464" spans="1:31">
+      <c r="AF463" s="13"/>
+    </row>
+    <row r="464" spans="1:32">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
@@ -25484,10 +25954,11 @@
       <c r="AA464" s="14"/>
       <c r="AB464" s="14"/>
       <c r="AC464" s="14"/>
-      <c r="AD464" s="13"/>
+      <c r="AD464" s="14"/>
       <c r="AE464" s="13"/>
-    </row>
-    <row r="465" spans="1:31">
+      <c r="AF464" s="13"/>
+    </row>
+    <row r="465" spans="1:32">
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
@@ -25517,10 +25988,11 @@
       <c r="AA465" s="14"/>
       <c r="AB465" s="14"/>
       <c r="AC465" s="14"/>
-      <c r="AD465" s="13"/>
+      <c r="AD465" s="14"/>
       <c r="AE465" s="13"/>
-    </row>
-    <row r="466" spans="1:31">
+      <c r="AF465" s="13"/>
+    </row>
+    <row r="466" spans="1:32">
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
@@ -25550,10 +26022,11 @@
       <c r="AA466" s="14"/>
       <c r="AB466" s="14"/>
       <c r="AC466" s="14"/>
-      <c r="AD466" s="13"/>
+      <c r="AD466" s="14"/>
       <c r="AE466" s="13"/>
-    </row>
-    <row r="467" spans="1:31">
+      <c r="AF466" s="13"/>
+    </row>
+    <row r="467" spans="1:32">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
@@ -25583,10 +26056,11 @@
       <c r="AA467" s="14"/>
       <c r="AB467" s="14"/>
       <c r="AC467" s="14"/>
-      <c r="AD467" s="13"/>
+      <c r="AD467" s="14"/>
       <c r="AE467" s="13"/>
-    </row>
-    <row r="468" spans="1:31">
+      <c r="AF467" s="13"/>
+    </row>
+    <row r="468" spans="1:32">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
@@ -25616,10 +26090,11 @@
       <c r="AA468" s="14"/>
       <c r="AB468" s="14"/>
       <c r="AC468" s="14"/>
-      <c r="AD468" s="13"/>
+      <c r="AD468" s="14"/>
       <c r="AE468" s="13"/>
-    </row>
-    <row r="469" spans="1:31">
+      <c r="AF468" s="13"/>
+    </row>
+    <row r="469" spans="1:32">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
@@ -25649,10 +26124,11 @@
       <c r="AA469" s="14"/>
       <c r="AB469" s="14"/>
       <c r="AC469" s="14"/>
-      <c r="AD469" s="13"/>
+      <c r="AD469" s="14"/>
       <c r="AE469" s="13"/>
-    </row>
-    <row r="470" spans="1:31">
+      <c r="AF469" s="13"/>
+    </row>
+    <row r="470" spans="1:32">
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
@@ -25682,10 +26158,11 @@
       <c r="AA470" s="14"/>
       <c r="AB470" s="14"/>
       <c r="AC470" s="14"/>
-      <c r="AD470" s="13"/>
+      <c r="AD470" s="14"/>
       <c r="AE470" s="13"/>
-    </row>
-    <row r="471" spans="1:31">
+      <c r="AF470" s="13"/>
+    </row>
+    <row r="471" spans="1:32">
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
@@ -25715,10 +26192,11 @@
       <c r="AA471" s="14"/>
       <c r="AB471" s="14"/>
       <c r="AC471" s="14"/>
-      <c r="AD471" s="13"/>
+      <c r="AD471" s="14"/>
       <c r="AE471" s="13"/>
-    </row>
-    <row r="472" spans="1:31">
+      <c r="AF471" s="13"/>
+    </row>
+    <row r="472" spans="1:32">
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
@@ -25748,10 +26226,11 @@
       <c r="AA472" s="14"/>
       <c r="AB472" s="14"/>
       <c r="AC472" s="14"/>
-      <c r="AD472" s="13"/>
+      <c r="AD472" s="14"/>
       <c r="AE472" s="13"/>
-    </row>
-    <row r="473" spans="1:31">
+      <c r="AF472" s="13"/>
+    </row>
+    <row r="473" spans="1:32">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
@@ -25781,10 +26260,11 @@
       <c r="AA473" s="14"/>
       <c r="AB473" s="14"/>
       <c r="AC473" s="14"/>
-      <c r="AD473" s="13"/>
+      <c r="AD473" s="14"/>
       <c r="AE473" s="13"/>
-    </row>
-    <row r="474" spans="1:31">
+      <c r="AF473" s="13"/>
+    </row>
+    <row r="474" spans="1:32">
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
@@ -25814,10 +26294,11 @@
       <c r="AA474" s="14"/>
       <c r="AB474" s="14"/>
       <c r="AC474" s="14"/>
-      <c r="AD474" s="13"/>
+      <c r="AD474" s="14"/>
       <c r="AE474" s="13"/>
-    </row>
-    <row r="475" spans="1:31">
+      <c r="AF474" s="13"/>
+    </row>
+    <row r="475" spans="1:32">
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
@@ -25847,10 +26328,11 @@
       <c r="AA475" s="14"/>
       <c r="AB475" s="14"/>
       <c r="AC475" s="14"/>
-      <c r="AD475" s="13"/>
+      <c r="AD475" s="14"/>
       <c r="AE475" s="13"/>
-    </row>
-    <row r="476" spans="1:31">
+      <c r="AF475" s="13"/>
+    </row>
+    <row r="476" spans="1:32">
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
@@ -25880,10 +26362,11 @@
       <c r="AA476" s="14"/>
       <c r="AB476" s="14"/>
       <c r="AC476" s="14"/>
-      <c r="AD476" s="13"/>
+      <c r="AD476" s="14"/>
       <c r="AE476" s="13"/>
-    </row>
-    <row r="477" spans="1:31">
+      <c r="AF476" s="13"/>
+    </row>
+    <row r="477" spans="1:32">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
@@ -25913,10 +26396,11 @@
       <c r="AA477" s="14"/>
       <c r="AB477" s="14"/>
       <c r="AC477" s="14"/>
-      <c r="AD477" s="13"/>
+      <c r="AD477" s="14"/>
       <c r="AE477" s="13"/>
-    </row>
-    <row r="478" spans="1:31">
+      <c r="AF477" s="13"/>
+    </row>
+    <row r="478" spans="1:32">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
@@ -25946,10 +26430,11 @@
       <c r="AA478" s="14"/>
       <c r="AB478" s="14"/>
       <c r="AC478" s="14"/>
-      <c r="AD478" s="13"/>
+      <c r="AD478" s="14"/>
       <c r="AE478" s="13"/>
-    </row>
-    <row r="479" spans="1:31">
+      <c r="AF478" s="13"/>
+    </row>
+    <row r="479" spans="1:32">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
@@ -25979,10 +26464,11 @@
       <c r="AA479" s="14"/>
       <c r="AB479" s="14"/>
       <c r="AC479" s="14"/>
-      <c r="AD479" s="13"/>
+      <c r="AD479" s="14"/>
       <c r="AE479" s="13"/>
-    </row>
-    <row r="480" spans="1:31">
+      <c r="AF479" s="13"/>
+    </row>
+    <row r="480" spans="1:32">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
@@ -26012,10 +26498,11 @@
       <c r="AA480" s="14"/>
       <c r="AB480" s="14"/>
       <c r="AC480" s="14"/>
-      <c r="AD480" s="13"/>
+      <c r="AD480" s="14"/>
       <c r="AE480" s="13"/>
-    </row>
-    <row r="481" spans="1:31">
+      <c r="AF480" s="13"/>
+    </row>
+    <row r="481" spans="1:32">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
@@ -26045,10 +26532,11 @@
       <c r="AA481" s="14"/>
       <c r="AB481" s="14"/>
       <c r="AC481" s="14"/>
-      <c r="AD481" s="13"/>
+      <c r="AD481" s="14"/>
       <c r="AE481" s="13"/>
-    </row>
-    <row r="482" spans="1:31">
+      <c r="AF481" s="13"/>
+    </row>
+    <row r="482" spans="1:32">
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
@@ -26078,10 +26566,11 @@
       <c r="AA482" s="14"/>
       <c r="AB482" s="14"/>
       <c r="AC482" s="14"/>
-      <c r="AD482" s="13"/>
+      <c r="AD482" s="14"/>
       <c r="AE482" s="13"/>
-    </row>
-    <row r="483" spans="1:31">
+      <c r="AF482" s="13"/>
+    </row>
+    <row r="483" spans="1:32">
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
@@ -26111,10 +26600,11 @@
       <c r="AA483" s="14"/>
       <c r="AB483" s="14"/>
       <c r="AC483" s="14"/>
-      <c r="AD483" s="13"/>
+      <c r="AD483" s="14"/>
       <c r="AE483" s="13"/>
-    </row>
-    <row r="484" spans="1:31">
+      <c r="AF483" s="13"/>
+    </row>
+    <row r="484" spans="1:32">
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
@@ -26144,10 +26634,11 @@
       <c r="AA484" s="14"/>
       <c r="AB484" s="14"/>
       <c r="AC484" s="14"/>
-      <c r="AD484" s="13"/>
+      <c r="AD484" s="14"/>
       <c r="AE484" s="13"/>
-    </row>
-    <row r="485" spans="1:31">
+      <c r="AF484" s="13"/>
+    </row>
+    <row r="485" spans="1:32">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
@@ -26177,10 +26668,11 @@
       <c r="AA485" s="14"/>
       <c r="AB485" s="14"/>
       <c r="AC485" s="14"/>
-      <c r="AD485" s="13"/>
+      <c r="AD485" s="14"/>
       <c r="AE485" s="13"/>
-    </row>
-    <row r="486" spans="1:31">
+      <c r="AF485" s="13"/>
+    </row>
+    <row r="486" spans="1:32">
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
@@ -26210,10 +26702,11 @@
       <c r="AA486" s="14"/>
       <c r="AB486" s="14"/>
       <c r="AC486" s="14"/>
-      <c r="AD486" s="13"/>
+      <c r="AD486" s="14"/>
       <c r="AE486" s="13"/>
-    </row>
-    <row r="487" spans="1:31">
+      <c r="AF486" s="13"/>
+    </row>
+    <row r="487" spans="1:32">
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
@@ -26243,10 +26736,11 @@
       <c r="AA487" s="14"/>
       <c r="AB487" s="14"/>
       <c r="AC487" s="14"/>
-      <c r="AD487" s="13"/>
+      <c r="AD487" s="14"/>
       <c r="AE487" s="13"/>
-    </row>
-    <row r="488" spans="1:31">
+      <c r="AF487" s="13"/>
+    </row>
+    <row r="488" spans="1:32">
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
@@ -26276,10 +26770,11 @@
       <c r="AA488" s="14"/>
       <c r="AB488" s="14"/>
       <c r="AC488" s="14"/>
-      <c r="AD488" s="13"/>
+      <c r="AD488" s="14"/>
       <c r="AE488" s="13"/>
-    </row>
-    <row r="489" spans="1:31">
+      <c r="AF488" s="13"/>
+    </row>
+    <row r="489" spans="1:32">
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
@@ -26309,10 +26804,11 @@
       <c r="AA489" s="14"/>
       <c r="AB489" s="14"/>
       <c r="AC489" s="14"/>
-      <c r="AD489" s="13"/>
+      <c r="AD489" s="14"/>
       <c r="AE489" s="13"/>
-    </row>
-    <row r="490" spans="1:31">
+      <c r="AF489" s="13"/>
+    </row>
+    <row r="490" spans="1:32">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
@@ -26342,10 +26838,11 @@
       <c r="AA490" s="14"/>
       <c r="AB490" s="14"/>
       <c r="AC490" s="14"/>
-      <c r="AD490" s="13"/>
+      <c r="AD490" s="14"/>
       <c r="AE490" s="13"/>
-    </row>
-    <row r="491" spans="1:31">
+      <c r="AF490" s="13"/>
+    </row>
+    <row r="491" spans="1:32">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
@@ -26375,10 +26872,11 @@
       <c r="AA491" s="14"/>
       <c r="AB491" s="14"/>
       <c r="AC491" s="14"/>
-      <c r="AD491" s="13"/>
+      <c r="AD491" s="14"/>
       <c r="AE491" s="13"/>
-    </row>
-    <row r="492" spans="1:31">
+      <c r="AF491" s="13"/>
+    </row>
+    <row r="492" spans="1:32">
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
@@ -26408,10 +26906,11 @@
       <c r="AA492" s="14"/>
       <c r="AB492" s="14"/>
       <c r="AC492" s="14"/>
-      <c r="AD492" s="13"/>
+      <c r="AD492" s="14"/>
       <c r="AE492" s="13"/>
-    </row>
-    <row r="493" spans="1:31">
+      <c r="AF492" s="13"/>
+    </row>
+    <row r="493" spans="1:32">
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
@@ -26441,10 +26940,11 @@
       <c r="AA493" s="14"/>
       <c r="AB493" s="14"/>
       <c r="AC493" s="14"/>
-      <c r="AD493" s="13"/>
+      <c r="AD493" s="14"/>
       <c r="AE493" s="13"/>
-    </row>
-    <row r="494" spans="1:31">
+      <c r="AF493" s="13"/>
+    </row>
+    <row r="494" spans="1:32">
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
@@ -26474,10 +26974,11 @@
       <c r="AA494" s="14"/>
       <c r="AB494" s="14"/>
       <c r="AC494" s="14"/>
-      <c r="AD494" s="13"/>
+      <c r="AD494" s="14"/>
       <c r="AE494" s="13"/>
-    </row>
-    <row r="495" spans="1:31">
+      <c r="AF494" s="13"/>
+    </row>
+    <row r="495" spans="1:32">
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
@@ -26507,10 +27008,11 @@
       <c r="AA495" s="14"/>
       <c r="AB495" s="14"/>
       <c r="AC495" s="14"/>
-      <c r="AD495" s="13"/>
+      <c r="AD495" s="14"/>
       <c r="AE495" s="13"/>
-    </row>
-    <row r="496" spans="1:31">
+      <c r="AF495" s="13"/>
+    </row>
+    <row r="496" spans="1:32">
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
@@ -26540,10 +27042,11 @@
       <c r="AA496" s="14"/>
       <c r="AB496" s="14"/>
       <c r="AC496" s="14"/>
-      <c r="AD496" s="13"/>
+      <c r="AD496" s="14"/>
       <c r="AE496" s="13"/>
-    </row>
-    <row r="497" spans="1:32">
+      <c r="AF496" s="13"/>
+    </row>
+    <row r="497" spans="1:33">
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
@@ -26573,10 +27076,11 @@
       <c r="AA497" s="14"/>
       <c r="AB497" s="14"/>
       <c r="AC497" s="14"/>
-      <c r="AD497" s="13"/>
+      <c r="AD497" s="14"/>
       <c r="AE497" s="13"/>
-    </row>
-    <row r="498" spans="1:32">
+      <c r="AF497" s="13"/>
+    </row>
+    <row r="498" spans="1:33">
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
@@ -26606,10 +27110,11 @@
       <c r="AA498" s="14"/>
       <c r="AB498" s="14"/>
       <c r="AC498" s="14"/>
-      <c r="AD498" s="13"/>
+      <c r="AD498" s="14"/>
       <c r="AE498" s="13"/>
-    </row>
-    <row r="499" spans="1:32">
+      <c r="AF498" s="13"/>
+    </row>
+    <row r="499" spans="1:33">
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
@@ -26639,10 +27144,11 @@
       <c r="AA499" s="14"/>
       <c r="AB499" s="14"/>
       <c r="AC499" s="14"/>
-      <c r="AD499" s="13"/>
+      <c r="AD499" s="14"/>
       <c r="AE499" s="13"/>
-    </row>
-    <row r="500" spans="1:32">
+      <c r="AF499" s="13"/>
+    </row>
+    <row r="500" spans="1:33">
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
@@ -26672,25 +27178,26 @@
       <c r="AA500" s="14"/>
       <c r="AB500" s="14"/>
       <c r="AC500" s="14"/>
-      <c r="AD500" s="13"/>
+      <c r="AD500" s="14"/>
       <c r="AE500" s="13"/>
-      <c r="AF500" s="17"/>
+      <c r="AF500" s="13"/>
+      <c r="AG500" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G500">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>AND($D9&lt;&gt;"Tube", $D9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W500">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>OR($A9="DNA", $A9="rna")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X9:AC500">
+  <conditionalFormatting sqref="X9:AD500">
     <cfRule type="expression" dxfId="9" priority="12">
       <formula>OR($B$3="Yes")</formula>
     </cfRule>
@@ -26720,7 +27227,7 @@
       <formula>AND($B$3="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8:AB8">
+  <conditionalFormatting sqref="X8:AC8">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>OR($B$3="Yes")</formula>
     </cfRule>
@@ -26735,7 +27242,7 @@
       <formula>OR($L8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8">
+  <conditionalFormatting sqref="AD8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($B$3="Yes")</formula>
     </cfRule>
@@ -26749,7 +27256,7 @@
       <formula1>INDIRECT(#REF!)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB9:AB500" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC9:AC500" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT(SUBSTITUTE(#REF!," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -26763,8 +27270,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{0AA70B42-92CA-A740-A487-056A16383FA6}">
       <formula1>INDIRECT(SUBSTITUTE((SUBSTITUTE(D8,"-"," "))," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8" xr:uid="{4A574FD4-8B45-2645-81AC-81ED71BF706E}">
-      <formula1>INDIRECT(SUBSTITUTE(AA8," ","_"))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8" xr:uid="{4A574FD4-8B45-2645-81AC-81ED71BF706E}">
+      <formula1>INDIRECT(SUBSTITUTE(AB8," ","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8" xr:uid="{10E6EC2D-E6B6-944B-BC36-712537467CBC}">
       <formula1>INDIRECT(A8)</formula1>
@@ -26776,7 +27283,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Index!$A$2:$A$14</xm:f>
@@ -26820,7 +27327,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>AA9:AA500</xm:sqref>
+          <xm:sqref>AB9:AB500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
@@ -26835,7 +27342,7 @@
           <x14:formula1>
             <xm:f>PoolSubmission!$A$4:$A$500</xm:f>
           </x14:formula1>
-          <xm:sqref>AC8:AC500</xm:sqref>
+          <xm:sqref>AD8:AD500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{0DFD4F7A-382A-F542-A44B-EF3D00615F62}">
           <x14:formula1>
@@ -26850,13 +27357,7 @@
           <x14:formula1>
             <xm:f>[Sample_submission_v3_11_0_dna_no_conc.xlsx]Index!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AA8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26DBD277-8C2E-5A44-B43F-9E93485742F4}">
-          <x14:formula1>
-            <xm:f>[Sample_submission_v3_11_0_dna_no_conc.xlsx]Index!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P8</xm:sqref>
+          <xm:sqref>AB8 P8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
